--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_4_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_4_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1966267.650796463</v>
+        <v>1998845.865311662</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584664</v>
+        <v>460545.8926584665</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7532008.621402396</v>
+        <v>7532008.621402395</v>
       </c>
     </row>
     <row r="11">
@@ -662,25 +664,25 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>225.4542698385318</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.809496073036188</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -738,19 +740,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>70.52904586619742</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -759,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -786,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>181.2921930499176</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -856,16 +858,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>205.5810588664028</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>230.6992324161051</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>155.9328799502333</v>
       </c>
     </row>
     <row r="7">
@@ -1066,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>110.9174757594851</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1093,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>198.7050131246913</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>71.01467844038824</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1212,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1221,13 +1223,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1263,16 +1265,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>230.5219311756913</v>
+        <v>7.532709320767368</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1315,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>267.6438624630175</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>163.6851955497072</v>
@@ -1415,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>20.3906380226312</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1461,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>119.3260324149127</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>159.6212195484502</v>
@@ -1503,7 +1505,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8986597023843</v>
+        <v>95.36746939102986</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1537,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>36.48436605884934</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>157.3867970498209</v>
@@ -1549,7 +1551,7 @@
         <v>139.0783256288916</v>
       </c>
       <c r="J13" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1579,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>113.3786705230755</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1607,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,10 +1624,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H14" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>24.97975510385932</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1664,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>120.675609412292</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1695,7 +1697,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1704,7 +1706,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2749539156380147</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1736,7 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>145.3441663090221</v>
       </c>
       <c r="T15" t="n">
         <v>197.5472709665096</v>
@@ -1771,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>36.48436605884934</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4465608509556</v>
+        <v>57.49696426323582</v>
       </c>
       <c r="H16" t="n">
         <v>157.3867970498209</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>117.889549819912</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,7 +1900,7 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
-        <v>205.4529121641861</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1935,10 +1937,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>67.03858805571426</v>
@@ -1977,13 +1979,13 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8986597023843</v>
+        <v>105.477605073267</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>121.4165796131833</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2011,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>123.320794865197</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>115.1165353722833</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2084,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2093,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>348.7306600134933</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S20" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2485578939812</v>
+        <v>107.6711182064217</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2169,7 +2171,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>8.362706743581283</v>
       </c>
       <c r="G21" t="n">
         <v>136.6941370086349</v>
@@ -2178,7 +2180,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571426</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T21" t="n">
-        <v>53.92880121529013</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U21" t="n">
         <v>225.8986597023843</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>110.9705324835873</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2296,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>101.4950217895004</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>13.64939255638574</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2330,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>327.0451232326991</v>
+        <v>239.4845519233171</v>
       </c>
       <c r="I23" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S23" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2400,7 +2402,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>159.6212195484502</v>
@@ -2454,10 +2456,10 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>36.06105802839681</v>
+        <v>181.2558810106748</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>16.60419956430074</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2533,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>43.03218749909144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>358.9101269683842</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>383.8925985966763</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>163.6851955497072</v>
@@ -2600,22 +2602,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2640,19 +2642,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>104.262613881998</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.83930139749142</v>
+        <v>1.45074264216445</v>
       </c>
       <c r="S27" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>197.5472709665096</v>
@@ -2764,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
         <v>286.2893338015361</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>43.3560697996877</v>
       </c>
       <c r="W28" t="n">
-        <v>16.83786409935544</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,25 +2794,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>259.5320787470919</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2852,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>347.3669805721903</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2880,10 +2882,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>60.11425531312955</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
         <v>105.9637990594094</v>
@@ -2916,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T30" t="n">
         <v>197.5472709665096</v>
@@ -2937,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>54.71150552924105</v>
       </c>
     </row>
     <row r="31">
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>110.970532483588</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3010,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>43.03218749909109</v>
       </c>
     </row>
     <row r="32">
@@ -3026,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>340.4422929262589</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3047,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3079,13 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S32" t="n">
-        <v>181.3631617334038</v>
+        <v>20.27746778754652</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3111,10 +3113,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>1.850456720369667</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -3156,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>53.92880121529013</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U33" t="n">
         <v>225.8986597023843</v>
@@ -3241,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>268.7418428881282</v>
+        <v>16.60419956430029</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3266,25 +3268,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>220.8293952847929</v>
       </c>
       <c r="H35" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3323,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>315.0609120077111</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3342,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3354,13 +3356,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>24.64815776426665</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
         <v>67.03858805571426</v>
@@ -3396,7 +3398,7 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T36" t="n">
-        <v>197.5472709665096</v>
+        <v>1.001463919215157</v>
       </c>
       <c r="U36" t="n">
         <v>225.8986597023843</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>115.9274873119629</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3481,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>9.090676859748122</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>170.6617166031552</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.089049841944</v>
+        <v>158.3062947428924</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3554,19 +3556,19 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3600,7 +3602,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3670,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>91.35315769505117</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3724,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>50.39085407108831</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,25 +3742,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>343.3911249456302</v>
       </c>
       <c r="G41" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3797,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>264.8469007078801</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3816,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>123.6077575056603</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3876,13 +3878,13 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>75.49458165574123</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3907,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>101.2952820371726</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3958,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>110.9705324835878</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>341.0102677696303</v>
       </c>
       <c r="G44" t="n">
-        <v>280.1701858327493</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4040,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4074,7 +4076,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
-        <v>67.03858805571424</v>
+        <v>17.93784657305892</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4107,10 +4109,10 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U45" t="n">
-        <v>60.36693997173244</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4135,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>43.03218749909109</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4186,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>43.35606979968811</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>720.6083788665362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="C2" t="n">
-        <v>720.6083788665362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="D2" t="n">
-        <v>720.6083788665362</v>
+        <v>525.1941863946996</v>
       </c>
       <c r="E2" t="n">
-        <v>720.6083788665362</v>
+        <v>525.1941863946996</v>
       </c>
       <c r="F2" t="n">
-        <v>477.1596022224361</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="G2" t="n">
-        <v>233.7108255783361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H2" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>21.10891692136039</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4355,25 +4357,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V2" t="n">
-        <v>720.6083788665362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W2" t="n">
-        <v>720.6083788665362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X2" t="n">
-        <v>720.6083788665362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y2" t="n">
-        <v>720.6083788665362</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>612.718391167419</v>
+        <v>414.6641751762832</v>
       </c>
       <c r="C3" t="n">
-        <v>612.718391167419</v>
+        <v>240.2111458951562</v>
       </c>
       <c r="D3" t="n">
-        <v>463.7839815061678</v>
+        <v>91.27673623390493</v>
       </c>
       <c r="E3" t="n">
-        <v>304.5465265007123</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4413,19 +4415,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4434,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y3" t="n">
-        <v>780.9337281874871</v>
+        <v>582.8795121963512</v>
       </c>
     </row>
     <row r="4">
@@ -4504,13 +4506,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
         <v>19.28114311021272</v>
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>266.3558523848238</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="C5" t="n">
-        <v>266.3558523848238</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="D5" t="n">
-        <v>266.3558523848238</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="E5" t="n">
-        <v>266.3558523848238</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="F5" t="n">
         <v>259.4103516356203</v>
@@ -4592,25 +4594,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>742.8341567219593</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V5" t="n">
-        <v>499.3853800778592</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W5" t="n">
-        <v>266.3558523848238</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X5" t="n">
-        <v>266.3558523848238</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y5" t="n">
-        <v>266.3558523848238</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="6">
@@ -4650,7 +4652,7 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M6" t="n">
         <v>304.2053859195205</v>
@@ -4668,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>913.4938269565423</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>913.4938269565423</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>913.4938269565423</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U6" t="n">
-        <v>913.4938269565423</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V6" t="n">
-        <v>678.3417187247995</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W6" t="n">
-        <v>434.8929420806995</v>
+        <v>345.004439675971</v>
       </c>
       <c r="X6" t="n">
-        <v>227.0414418751666</v>
+        <v>345.004439675971</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C7" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D7" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E7" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F7" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G7" t="n">
-        <v>64.03213664411894</v>
+        <v>852.019301208126</v>
       </c>
       <c r="H7" t="n">
-        <v>64.03213664411894</v>
+        <v>852.019301208126</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>852.019301208126</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R7" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S7" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T7" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U7" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V7" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W7" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X7" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y7" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.5825927271064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C8" t="n">
-        <v>559.1338160830064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D8" t="n">
-        <v>559.1338160830064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E8" t="n">
-        <v>559.1338160830064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F8" t="n">
-        <v>315.6850394389064</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
         <v>243.9530410142718</v>
@@ -4826,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W8" t="n">
-        <v>802.5825927271064</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X8" t="n">
-        <v>802.5825927271064</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y8" t="n">
-        <v>802.5825927271064</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>453.6378659568754</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H9" t="n">
         <v>19.28114311021272</v>
@@ -4887,19 +4889,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4911,22 +4913,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>487.2836868729568</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V9" t="n">
-        <v>252.1315786412141</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="W9" t="n">
-        <v>19.28114311021272</v>
+        <v>453.6378659568754</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>453.6378659568754</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>453.6378659568754</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4987,25 +4989,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2066.584560065958</v>
+        <v>900.8526811433298</v>
       </c>
       <c r="C11" t="n">
-        <v>1697.622043125546</v>
+        <v>900.8526811433298</v>
       </c>
       <c r="D11" t="n">
-        <v>1339.356344518795</v>
+        <v>900.8526811433298</v>
       </c>
       <c r="E11" t="n">
-        <v>953.5680919205511</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="F11" t="n">
-        <v>542.5821871309436</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="G11" t="n">
-        <v>542.5821871309436</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H11" t="n">
         <v>212.2335778049849</v>
@@ -5039,10 +5041,10 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J11" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L11" t="n">
         <v>762.5916738244549</v>
@@ -5063,28 +5065,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R11" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S11" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T11" t="n">
-        <v>2066.584560065958</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U11" t="n">
-        <v>2066.584560065958</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V11" t="n">
-        <v>2066.584560065958</v>
+        <v>2013.686934738646</v>
       </c>
       <c r="W11" t="n">
-        <v>2066.584560065958</v>
+        <v>1660.918279468531</v>
       </c>
       <c r="X11" t="n">
-        <v>2066.584560065958</v>
+        <v>1287.452521207452</v>
       </c>
       <c r="Y11" t="n">
-        <v>2066.584560065958</v>
+        <v>1287.452521207452</v>
       </c>
     </row>
     <row r="12">
@@ -5094,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>622.1327649551154</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="C12" t="n">
-        <v>622.1327649551154</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D12" t="n">
-        <v>473.1983552938641</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E12" t="n">
-        <v>313.9609002884086</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F12" t="n">
-        <v>167.4263423152936</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G12" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H12" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I12" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J12" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K12" t="n">
-        <v>273.1268607498447</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L12" t="n">
-        <v>642.6780758583286</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M12" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N12" t="n">
         <v>1637.630816213677</v>
@@ -5142,28 +5144,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R12" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S12" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T12" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U12" t="n">
-        <v>1695.349365905614</v>
+        <v>1887.642791874146</v>
       </c>
       <c r="V12" t="n">
-        <v>1460.197257673872</v>
+        <v>1652.490683642403</v>
       </c>
       <c r="W12" t="n">
-        <v>1205.95990094567</v>
+        <v>1398.253326914201</v>
       </c>
       <c r="X12" t="n">
-        <v>998.1084007401373</v>
+        <v>1190.401826708669</v>
       </c>
       <c r="Y12" t="n">
-        <v>790.3481019751835</v>
+        <v>982.6415279437147</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>607.7685734363102</v>
+        <v>493.244663817042</v>
       </c>
       <c r="C13" t="n">
-        <v>607.7685734363102</v>
+        <v>493.244663817042</v>
       </c>
       <c r="D13" t="n">
-        <v>607.7685734363102</v>
+        <v>493.244663817042</v>
       </c>
       <c r="E13" t="n">
-        <v>607.7685734363102</v>
+        <v>493.244663817042</v>
       </c>
       <c r="F13" t="n">
-        <v>570.9156784273715</v>
+        <v>346.3547163191317</v>
       </c>
       <c r="G13" t="n">
-        <v>401.7777381738809</v>
+        <v>346.3547163191317</v>
       </c>
       <c r="H13" t="n">
-        <v>242.8011754972942</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="I13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J13" t="n">
         <v>46.89499644164432</v>
@@ -5227,22 +5229,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T13" t="n">
-        <v>607.7685734363102</v>
+        <v>493.244663817042</v>
       </c>
       <c r="U13" t="n">
-        <v>607.7685734363102</v>
+        <v>493.244663817042</v>
       </c>
       <c r="V13" t="n">
-        <v>607.7685734363102</v>
+        <v>493.244663817042</v>
       </c>
       <c r="W13" t="n">
-        <v>607.7685734363102</v>
+        <v>493.244663817042</v>
       </c>
       <c r="X13" t="n">
-        <v>607.7685734363102</v>
+        <v>493.244663817042</v>
       </c>
       <c r="Y13" t="n">
-        <v>607.7685734363102</v>
+        <v>493.244663817042</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2344.749822082216</v>
+        <v>1427.279502709952</v>
       </c>
       <c r="C14" t="n">
-        <v>1975.787305141805</v>
+        <v>1427.279502709952</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.521606535054</v>
+        <v>1427.279502709952</v>
       </c>
       <c r="E14" t="n">
-        <v>1231.73335393681</v>
+        <v>1041.491250111708</v>
       </c>
       <c r="F14" t="n">
-        <v>820.7474491472024</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="G14" t="n">
-        <v>402.4756816300872</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H14" t="n">
-        <v>72.12707230412849</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I14" t="n">
         <v>46.89499644164432</v>
@@ -5300,28 +5302,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R14" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S14" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T14" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U14" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V14" t="n">
-        <v>2344.749822082216</v>
+        <v>1939.313389647675</v>
       </c>
       <c r="W14" t="n">
-        <v>2344.749822082216</v>
+        <v>1817.418834685764</v>
       </c>
       <c r="X14" t="n">
-        <v>2344.749822082216</v>
+        <v>1817.418834685764</v>
       </c>
       <c r="Y14" t="n">
-        <v>2344.749822082216</v>
+        <v>1427.279502709952</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>783.3663200545602</v>
+        <v>636.554030853528</v>
       </c>
       <c r="C15" t="n">
-        <v>608.9132907734332</v>
+        <v>462.101001572401</v>
       </c>
       <c r="D15" t="n">
-        <v>459.978881112182</v>
+        <v>313.1665919111497</v>
       </c>
       <c r="E15" t="n">
-        <v>300.7414261067265</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="F15" t="n">
-        <v>154.2068681336114</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="G15" t="n">
-        <v>154.2068681336114</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H15" t="n">
-        <v>47.17272766956151</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I15" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J15" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K15" t="n">
-        <v>273.1268607498447</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L15" t="n">
-        <v>642.6780758583286</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M15" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N15" t="n">
-        <v>1637.630816213677</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O15" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P15" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q15" t="n">
         <v>2344.749822082216</v>
@@ -5382,25 +5384,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S15" t="n">
-        <v>2284.306083296871</v>
+        <v>2137.493794095839</v>
       </c>
       <c r="T15" t="n">
-        <v>2084.763385350902</v>
+        <v>1937.95109614987</v>
       </c>
       <c r="U15" t="n">
-        <v>1856.582921005059</v>
+        <v>1709.770631804027</v>
       </c>
       <c r="V15" t="n">
-        <v>1621.430812773317</v>
+        <v>1474.618523572284</v>
       </c>
       <c r="W15" t="n">
-        <v>1367.193456045115</v>
+        <v>1220.381166844083</v>
       </c>
       <c r="X15" t="n">
-        <v>1159.341955839582</v>
+        <v>1012.52966663855</v>
       </c>
       <c r="Y15" t="n">
-        <v>951.5816570746283</v>
+        <v>804.7693678735961</v>
       </c>
     </row>
     <row r="16">
@@ -5419,10 +5421,10 @@
         <v>607.7685734363102</v>
       </c>
       <c r="E16" t="n">
-        <v>607.7685734363102</v>
+        <v>459.8554798539171</v>
       </c>
       <c r="F16" t="n">
-        <v>570.9156784273715</v>
+        <v>459.8554798539171</v>
       </c>
       <c r="G16" t="n">
         <v>401.7777381738809</v>
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C17" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D17" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E17" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F17" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G17" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H17" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I17" t="n">
         <v>46.89499644164432</v>
@@ -5519,10 +5521,10 @@
         <v>392.9020949275675</v>
       </c>
       <c r="L17" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M17" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N17" t="n">
         <v>1610.799342072557</v>
@@ -5546,19 +5548,19 @@
         <v>1867.1984047608</v>
       </c>
       <c r="U17" t="n">
-        <v>1659.670210655561</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V17" t="n">
-        <v>1328.607323311991</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W17" t="n">
-        <v>975.8386680418764</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="X17" t="n">
-        <v>602.3729097807966</v>
+        <v>556.1146817709025</v>
       </c>
       <c r="Y17" t="n">
-        <v>212.2335778049849</v>
+        <v>165.9753497950908</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.8792202047736</v>
+        <v>743.7701938734157</v>
       </c>
       <c r="C18" t="n">
-        <v>814.4261909236466</v>
+        <v>569.3171645922887</v>
       </c>
       <c r="D18" t="n">
-        <v>665.4917812623953</v>
+        <v>420.3827549310374</v>
       </c>
       <c r="E18" t="n">
-        <v>506.2543262569397</v>
+        <v>261.1452999255819</v>
       </c>
       <c r="F18" t="n">
-        <v>359.7197682838247</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="G18" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H18" t="n">
         <v>114.6107419524668</v>
@@ -5607,7 +5609,7 @@
         <v>1640.568559592725</v>
       </c>
       <c r="O18" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P18" t="n">
         <v>2193.291384540003</v>
@@ -5625,19 +5627,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U18" t="n">
-        <v>1695.349365905614</v>
+        <v>1816.986794823915</v>
       </c>
       <c r="V18" t="n">
-        <v>1695.349365905614</v>
+        <v>1581.834686592172</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.706356195328</v>
+        <v>1327.59732986397</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.854855989795</v>
+        <v>1119.745829658438</v>
       </c>
       <c r="Y18" t="n">
-        <v>1157.094557224842</v>
+        <v>911.9855308934837</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>193.7849439395547</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C19" t="n">
-        <v>193.7849439395547</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D19" t="n">
-        <v>193.7849439395547</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E19" t="n">
-        <v>193.7849439395547</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F19" t="n">
         <v>46.89499644164432</v>
@@ -5695,28 +5697,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R19" t="n">
-        <v>483.2021139765153</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S19" t="n">
-        <v>483.2021139765153</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="T19" t="n">
-        <v>483.2021139765153</v>
+        <v>163.1743251005163</v>
       </c>
       <c r="U19" t="n">
-        <v>483.2021139765153</v>
+        <v>163.1743251005163</v>
       </c>
       <c r="V19" t="n">
-        <v>483.2021139765153</v>
+        <v>163.1743251005163</v>
       </c>
       <c r="W19" t="n">
-        <v>193.7849439395547</v>
+        <v>163.1743251005163</v>
       </c>
       <c r="X19" t="n">
-        <v>193.7849439395547</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y19" t="n">
-        <v>193.7849439395547</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1168.399791770824</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="C20" t="n">
-        <v>1168.399791770824</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="D20" t="n">
-        <v>810.1340931640734</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="E20" t="n">
-        <v>810.1340931640734</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F20" t="n">
-        <v>399.1481883744659</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G20" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H20" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I20" t="n">
         <v>46.89499644164432</v>
@@ -5759,7 +5761,7 @@
         <v>762.591673824455</v>
       </c>
       <c r="M20" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N20" t="n">
         <v>1610.799342072557</v>
@@ -5774,28 +5776,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R20" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S20" t="n">
-        <v>2161.554709220192</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T20" t="n">
-        <v>2161.554709220192</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U20" t="n">
-        <v>1907.76828710506</v>
+        <v>1758.439699501788</v>
       </c>
       <c r="V20" t="n">
-        <v>1907.76828710506</v>
+        <v>1758.439699501788</v>
       </c>
       <c r="W20" t="n">
-        <v>1554.999631834946</v>
+        <v>1758.439699501788</v>
       </c>
       <c r="X20" t="n">
-        <v>1554.999631834946</v>
+        <v>1758.439699501788</v>
       </c>
       <c r="Y20" t="n">
-        <v>1554.999631834946</v>
+        <v>1758.439699501788</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.8792202047736</v>
+        <v>850.7918407605284</v>
       </c>
       <c r="C21" t="n">
-        <v>814.4261909236466</v>
+        <v>676.3388114794014</v>
       </c>
       <c r="D21" t="n">
-        <v>665.4917812623953</v>
+        <v>527.4044018181502</v>
       </c>
       <c r="E21" t="n">
-        <v>506.2543262569397</v>
+        <v>368.1669468126947</v>
       </c>
       <c r="F21" t="n">
         <v>359.7197682838247</v>
@@ -5829,16 +5831,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J21" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K21" t="n">
-        <v>276.0646041288937</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L21" t="n">
-        <v>645.6158192373775</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M21" t="n">
-        <v>1128.843878304552</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N21" t="n">
         <v>1486.172378671464</v>
@@ -5856,25 +5858,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S21" t="n">
-        <v>2344.749822082216</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T21" t="n">
-        <v>2290.276285501115</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U21" t="n">
-        <v>2062.095821155272</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.94371292353</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.706356195328</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.854855989795</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y21" t="n">
-        <v>1157.094557224842</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="22">
@@ -5884,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.89499644164432</v>
+        <v>215.8311793695513</v>
       </c>
       <c r="C22" t="n">
         <v>46.89499644164432</v>
@@ -5911,7 +5913,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K22" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L22" t="n">
         <v>194.9121237200978</v>
@@ -5944,16 +5946,16 @@
         <v>607.7685734363102</v>
       </c>
       <c r="V22" t="n">
-        <v>607.7685734363102</v>
+        <v>505.2483494065119</v>
       </c>
       <c r="W22" t="n">
-        <v>607.7685734363102</v>
+        <v>215.8311793695513</v>
       </c>
       <c r="X22" t="n">
-        <v>379.7790225382929</v>
+        <v>215.8311793695513</v>
       </c>
       <c r="Y22" t="n">
-        <v>158.9864433947628</v>
+        <v>215.8311793695513</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1771.415377244381</v>
+        <v>1443.838440237577</v>
       </c>
       <c r="C23" t="n">
-        <v>1771.415377244381</v>
+        <v>1443.838440237577</v>
       </c>
       <c r="D23" t="n">
-        <v>1757.628112035911</v>
+        <v>1085.572741630827</v>
       </c>
       <c r="E23" t="n">
-        <v>1371.839859437666</v>
+        <v>699.7844890325823</v>
       </c>
       <c r="F23" t="n">
-        <v>960.8539546480588</v>
+        <v>288.7985842429748</v>
       </c>
       <c r="G23" t="n">
-        <v>542.5821871309436</v>
+        <v>288.7985842429748</v>
       </c>
       <c r="H23" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I23" t="n">
         <v>46.89499644164432</v>
@@ -6008,31 +6010,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q23" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R23" t="n">
-        <v>2344.749822082217</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S23" t="n">
-        <v>2161.554709220193</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T23" t="n">
-        <v>2161.554709220193</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U23" t="n">
-        <v>2161.554709220193</v>
+        <v>1796.607095507691</v>
       </c>
       <c r="V23" t="n">
-        <v>2161.554709220193</v>
+        <v>1796.607095507691</v>
       </c>
       <c r="W23" t="n">
-        <v>2161.554709220193</v>
+        <v>1443.838440237577</v>
       </c>
       <c r="X23" t="n">
-        <v>2161.554709220193</v>
+        <v>1443.838440237577</v>
       </c>
       <c r="Y23" t="n">
-        <v>1771.415377244381</v>
+        <v>1443.838440237577</v>
       </c>
     </row>
     <row r="24">
@@ -6042,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>839.9448105435223</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C24" t="n">
-        <v>665.4917812623953</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D24" t="n">
         <v>665.4917812623953</v>
@@ -6066,52 +6068,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J24" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K24" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L24" t="n">
-        <v>645.6158192373775</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M24" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N24" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O24" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P24" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q24" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R24" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S24" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T24" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U24" t="n">
-        <v>1695.349365905614</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V24" t="n">
-        <v>1460.197257673872</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="W24" t="n">
-        <v>1423.771946534077</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X24" t="n">
-        <v>1215.920446328544</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y24" t="n">
-        <v>1008.16014756359</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="25">
@@ -6181,16 +6183,16 @@
         <v>2344.749822082216</v>
       </c>
       <c r="V25" t="n">
-        <v>2344.749822082216</v>
+        <v>2090.06533387633</v>
       </c>
       <c r="W25" t="n">
-        <v>2055.332652045256</v>
+        <v>1800.648163839369</v>
       </c>
       <c r="X25" t="n">
-        <v>1827.343101147238</v>
+        <v>1800.648163839369</v>
       </c>
       <c r="Y25" t="n">
-        <v>1783.87624508755</v>
+        <v>1800.648163839369</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1734.412508859107</v>
+        <v>1325.250045950391</v>
       </c>
       <c r="C26" t="n">
-        <v>1734.412508859107</v>
+        <v>956.2875290099796</v>
       </c>
       <c r="D26" t="n">
-        <v>1734.412508859107</v>
+        <v>598.0218304032292</v>
       </c>
       <c r="E26" t="n">
-        <v>1348.624256260863</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="F26" t="n">
-        <v>960.8539546480588</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="G26" t="n">
-        <v>542.5821871309436</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H26" t="n">
         <v>212.2335778049849</v>
@@ -6224,16 +6226,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K26" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L26" t="n">
-        <v>762.5916738244551</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M26" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N26" t="n">
         <v>1610.799342072557</v>
@@ -6248,28 +6250,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R26" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S26" t="n">
-        <v>2087.181164129222</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T26" t="n">
-        <v>2087.181164129222</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="U26" t="n">
-        <v>2087.181164129222</v>
+        <v>1687.785527736638</v>
       </c>
       <c r="V26" t="n">
-        <v>2087.181164129222</v>
+        <v>1687.785527736638</v>
       </c>
       <c r="W26" t="n">
-        <v>1734.412508859107</v>
+        <v>1687.785527736638</v>
       </c>
       <c r="X26" t="n">
-        <v>1734.412508859107</v>
+        <v>1687.785527736638</v>
       </c>
       <c r="Y26" t="n">
-        <v>1734.412508859107</v>
+        <v>1687.785527736638</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>622.1327649551154</v>
+        <v>842.3446622316584</v>
       </c>
       <c r="C27" t="n">
-        <v>447.6797356739884</v>
+        <v>667.8916329505314</v>
       </c>
       <c r="D27" t="n">
-        <v>298.7453260127371</v>
+        <v>518.9572232892801</v>
       </c>
       <c r="E27" t="n">
-        <v>193.4295544147594</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="F27" t="n">
-        <v>46.89499644164432</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G27" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H27" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I27" t="n">
         <v>46.89499644164432</v>
@@ -6306,49 +6308,49 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K27" t="n">
-        <v>273.1268607498447</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L27" t="n">
-        <v>642.6780758583286</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M27" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N27" t="n">
-        <v>1637.630816213677</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O27" t="n">
-        <v>2039.343247810003</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P27" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q27" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R27" t="n">
-        <v>2284.306083296871</v>
+        <v>2343.284425473969</v>
       </c>
       <c r="S27" t="n">
-        <v>2123.072528197426</v>
+        <v>2343.284425473969</v>
       </c>
       <c r="T27" t="n">
-        <v>1923.529830251457</v>
+        <v>2143.741727528</v>
       </c>
       <c r="U27" t="n">
-        <v>1695.349365905614</v>
+        <v>1915.561263182157</v>
       </c>
       <c r="V27" t="n">
-        <v>1460.197257673872</v>
+        <v>1680.409154950415</v>
       </c>
       <c r="W27" t="n">
-        <v>1205.95990094567</v>
+        <v>1426.171798222213</v>
       </c>
       <c r="X27" t="n">
-        <v>998.1084007401373</v>
+        <v>1218.32029801668</v>
       </c>
       <c r="Y27" t="n">
-        <v>790.3481019751835</v>
+        <v>1010.559999251726</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K28" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L28" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M28" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N28" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O28" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T28" t="n">
-        <v>2344.749822082216</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U28" t="n">
-        <v>2055.568676828139</v>
+        <v>90.68900634031877</v>
       </c>
       <c r="V28" t="n">
-        <v>1800.884188622252</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>843.6691538294961</v>
+        <v>1584.684223757015</v>
       </c>
       <c r="C29" t="n">
-        <v>843.6691538294961</v>
+        <v>1215.721706816604</v>
       </c>
       <c r="D29" t="n">
-        <v>843.6691538294961</v>
+        <v>1215.721706816604</v>
       </c>
       <c r="E29" t="n">
-        <v>457.8809012312519</v>
+        <v>1215.721706816604</v>
       </c>
       <c r="F29" t="n">
-        <v>46.89499644164432</v>
+        <v>804.735802026996</v>
       </c>
       <c r="G29" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H29" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I29" t="n">
         <v>46.89499644164432</v>
@@ -6500,13 +6502,13 @@
         <v>2344.749822082217</v>
       </c>
       <c r="W29" t="n">
-        <v>1993.874084130509</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="X29" t="n">
-        <v>1620.40832586943</v>
+        <v>1971.284063821137</v>
       </c>
       <c r="Y29" t="n">
-        <v>1230.268993893618</v>
+        <v>1971.284063821137</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>843.8100588399052</v>
+        <v>774.6289167208359</v>
       </c>
       <c r="C30" t="n">
-        <v>669.3570295587782</v>
+        <v>600.175887439709</v>
       </c>
       <c r="D30" t="n">
-        <v>520.4226198975269</v>
+        <v>451.2414777784577</v>
       </c>
       <c r="E30" t="n">
-        <v>361.1851648920714</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="F30" t="n">
-        <v>214.6506069189564</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G30" t="n">
         <v>153.9291369056942</v>
@@ -6540,52 +6542,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J30" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K30" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L30" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N30" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O30" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P30" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q30" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R30" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S30" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T30" t="n">
-        <v>2145.207124136247</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U30" t="n">
-        <v>1917.026659790404</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V30" t="n">
-        <v>1681.874551558662</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W30" t="n">
-        <v>1427.63719483046</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X30" t="n">
-        <v>1219.785694624927</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y30" t="n">
-        <v>1012.025395859973</v>
+        <v>942.8442537409039</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K31" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L31" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M31" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N31" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O31" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W31" t="n">
-        <v>2344.749822082216</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="X31" t="n">
-        <v>2116.760271184199</v>
+        <v>90.36185250133229</v>
       </c>
       <c r="Y31" t="n">
-        <v>1895.967692040669</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="32">
@@ -6674,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>556.114681770903</v>
+        <v>415.857513382056</v>
       </c>
       <c r="C32" t="n">
-        <v>556.114681770903</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D32" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E32" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F32" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G32" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H32" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I32" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K32" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L32" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M32" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N32" t="n">
         <v>1610.799342072557</v>
@@ -6719,31 +6721,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q32" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R32" t="n">
         <v>2270.376276991246</v>
       </c>
       <c r="S32" t="n">
-        <v>2087.181164129222</v>
+        <v>2249.893986296754</v>
       </c>
       <c r="T32" t="n">
-        <v>1867.1984047608</v>
+        <v>2249.893986296754</v>
       </c>
       <c r="U32" t="n">
-        <v>1613.411982645668</v>
+        <v>2249.893986296754</v>
       </c>
       <c r="V32" t="n">
-        <v>1282.349095302097</v>
+        <v>1918.831098953184</v>
       </c>
       <c r="W32" t="n">
-        <v>929.5804400319828</v>
+        <v>1566.062443683069</v>
       </c>
       <c r="X32" t="n">
-        <v>556.114681770903</v>
+        <v>1192.59668542199</v>
       </c>
       <c r="Y32" t="n">
-        <v>556.114681770903</v>
+        <v>802.4573534461779</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.8792202047736</v>
+        <v>682.5765037404603</v>
       </c>
       <c r="C33" t="n">
-        <v>814.4261909236466</v>
+        <v>508.1234744593334</v>
       </c>
       <c r="D33" t="n">
-        <v>665.4917812623953</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="E33" t="n">
         <v>506.2543262569397</v>
@@ -6777,7 +6779,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J33" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K33" t="n">
         <v>121.6684232076319</v>
@@ -6804,25 +6806,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S33" t="n">
-        <v>2290.276285501115</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T33" t="n">
-        <v>2290.276285501115</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U33" t="n">
-        <v>2062.095821155272</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.94371292353</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.706356195328</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.854855989795</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y33" t="n">
-        <v>1157.094557224842</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="34">
@@ -6889,7 +6891,7 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U34" t="n">
-        <v>336.3121664786049</v>
+        <v>590.9966546844918</v>
       </c>
       <c r="V34" t="n">
         <v>336.3121664786049</v>
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>735.5093043743535</v>
+        <v>1215.241994772169</v>
       </c>
       <c r="C35" t="n">
-        <v>735.5093043743535</v>
+        <v>846.279477831757</v>
       </c>
       <c r="D35" t="n">
-        <v>377.243605767603</v>
+        <v>846.279477831757</v>
       </c>
       <c r="E35" t="n">
-        <v>377.243605767603</v>
+        <v>846.279477831757</v>
       </c>
       <c r="F35" t="n">
-        <v>377.243605767603</v>
+        <v>435.2935730421495</v>
       </c>
       <c r="G35" t="n">
-        <v>377.243605767603</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H35" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I35" t="n">
         <v>46.89499644164432</v>
@@ -6941,7 +6943,7 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L35" t="n">
-        <v>762.5916738244551</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M35" t="n">
         <v>1190.549107376119</v>
@@ -6962,25 +6964,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S35" t="n">
-        <v>2161.554709220192</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T35" t="n">
-        <v>2161.554709220192</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U35" t="n">
-        <v>2161.554709220192</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V35" t="n">
-        <v>1830.491821876622</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W35" t="n">
-        <v>1512.248476414287</v>
+        <v>1991.981166812102</v>
       </c>
       <c r="X35" t="n">
-        <v>1512.248476414287</v>
+        <v>1991.981166812102</v>
       </c>
       <c r="Y35" t="n">
-        <v>1122.109144438475</v>
+        <v>1601.84183483629</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>622.1327649551154</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C36" t="n">
-        <v>447.6797356739884</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D36" t="n">
-        <v>298.7453260127371</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E36" t="n">
-        <v>139.5078710072816</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F36" t="n">
-        <v>114.6107419524668</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G36" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H36" t="n">
         <v>114.6107419524668</v>
@@ -7017,22 +7019,22 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K36" t="n">
-        <v>273.1268607498447</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L36" t="n">
-        <v>642.6780758583286</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M36" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N36" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O36" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P36" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q36" t="n">
         <v>2344.749822082216</v>
@@ -7044,22 +7046,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T36" t="n">
-        <v>1923.529830251457</v>
+        <v>2122.060948481047</v>
       </c>
       <c r="U36" t="n">
-        <v>1695.349365905614</v>
+        <v>1893.880484135205</v>
       </c>
       <c r="V36" t="n">
-        <v>1460.197257673872</v>
+        <v>1658.728375903462</v>
       </c>
       <c r="W36" t="n">
-        <v>1205.95990094567</v>
+        <v>1404.49101917526</v>
       </c>
       <c r="X36" t="n">
-        <v>998.1084007401373</v>
+        <v>1196.639518969728</v>
       </c>
       <c r="Y36" t="n">
-        <v>790.3481019751835</v>
+        <v>988.8792202047736</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2080.882831997796</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C37" t="n">
-        <v>2080.882831997796</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D37" t="n">
-        <v>1930.76619258546</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E37" t="n">
-        <v>1930.76619258546</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F37" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G37" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H37" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I37" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J37" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K37" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L37" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M37" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N37" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O37" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P37" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q37" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R37" t="n">
-        <v>2344.749822082216</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="S37" t="n">
-        <v>2344.749822082216</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="T37" t="n">
-        <v>2344.749822082216</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="U37" t="n">
-        <v>2344.749822082216</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="V37" t="n">
-        <v>2090.06533387633</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="W37" t="n">
-        <v>2080.882831997796</v>
+        <v>163.9934684739301</v>
       </c>
       <c r="X37" t="n">
-        <v>2080.882831997796</v>
+        <v>163.9934684739301</v>
       </c>
       <c r="Y37" t="n">
-        <v>2080.882831997796</v>
+        <v>163.9934684739301</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1989.169136893773</v>
+        <v>961.551114205444</v>
       </c>
       <c r="C38" t="n">
-        <v>1620.206619953362</v>
+        <v>592.5885972650324</v>
       </c>
       <c r="D38" t="n">
-        <v>1261.940921346611</v>
+        <v>592.5885972650324</v>
       </c>
       <c r="E38" t="n">
-        <v>876.152668748367</v>
+        <v>206.8003446667881</v>
       </c>
       <c r="F38" t="n">
-        <v>465.1667639587595</v>
+        <v>206.8003446667881</v>
       </c>
       <c r="G38" t="n">
         <v>46.89499644164432</v>
@@ -7172,16 +7174,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J38" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L38" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M38" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N38" t="n">
         <v>1610.799342072557</v>
@@ -7193,31 +7195,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q38" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R38" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S38" t="n">
-        <v>2161.554709220193</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T38" t="n">
-        <v>2161.554709220193</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="U38" t="n">
-        <v>2161.554709220193</v>
+        <v>1687.785527736638</v>
       </c>
       <c r="V38" t="n">
-        <v>2161.554709220193</v>
+        <v>1687.785527736638</v>
       </c>
       <c r="W38" t="n">
-        <v>2161.554709220193</v>
+        <v>1335.016872466524</v>
       </c>
       <c r="X38" t="n">
-        <v>2161.554709220193</v>
+        <v>961.551114205444</v>
       </c>
       <c r="Y38" t="n">
-        <v>2161.554709220193</v>
+        <v>961.551114205444</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7253,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J39" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K39" t="n">
-        <v>273.1268607498447</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L39" t="n">
-        <v>642.6780758583286</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M39" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N39" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O39" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P39" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q39" t="n">
         <v>2344.749822082216</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C40" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D40" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="E40" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="F40" t="n">
-        <v>46.89499644164432</v>
+        <v>515.4926565726222</v>
       </c>
       <c r="G40" t="n">
-        <v>46.89499644164432</v>
+        <v>346.3547163191317</v>
       </c>
       <c r="H40" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="I40" t="n">
         <v>46.89499644164432</v>
@@ -7333,7 +7335,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K40" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L40" t="n">
         <v>194.9121237200978</v>
@@ -7363,19 +7365,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U40" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V40" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W40" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X40" t="n">
-        <v>267.6875755851744</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>960.8539546480588</v>
+        <v>1506.771186754354</v>
       </c>
       <c r="C41" t="n">
-        <v>960.8539546480588</v>
+        <v>1137.808669813942</v>
       </c>
       <c r="D41" t="n">
-        <v>960.8539546480588</v>
+        <v>779.5429712071918</v>
       </c>
       <c r="E41" t="n">
-        <v>960.8539546480588</v>
+        <v>393.7547186089476</v>
       </c>
       <c r="F41" t="n">
-        <v>960.8539546480588</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G41" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H41" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I41" t="n">
         <v>46.89499644164432</v>
@@ -7433,28 +7435,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R41" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S41" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T41" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U41" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V41" t="n">
-        <v>2077.227700155065</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="W41" t="n">
-        <v>1724.45904488495</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="X41" t="n">
-        <v>1350.993286623871</v>
+        <v>1896.910518730166</v>
       </c>
       <c r="Y41" t="n">
-        <v>960.8539546480588</v>
+        <v>1506.771186754354</v>
       </c>
     </row>
     <row r="42">
@@ -7464,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>665.4917812623953</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C42" t="n">
-        <v>665.4917812623953</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D42" t="n">
         <v>665.4917812623953</v>
@@ -7488,25 +7490,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J42" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K42" t="n">
-        <v>336.0641406922997</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L42" t="n">
-        <v>705.6153558007836</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M42" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N42" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O42" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P42" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q42" t="n">
         <v>2344.749822082216</v>
@@ -7524,16 +7526,16 @@
         <v>1695.349365905614</v>
       </c>
       <c r="V42" t="n">
-        <v>1460.197257673872</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="W42" t="n">
-        <v>1205.95990094567</v>
+        <v>1441.112009177413</v>
       </c>
       <c r="X42" t="n">
-        <v>998.1084007401373</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y42" t="n">
-        <v>790.3481019751835</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1783.87624508755</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="C43" t="n">
-        <v>1783.87624508755</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="D43" t="n">
-        <v>1783.87624508755</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="E43" t="n">
-        <v>1783.87624508755</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="F43" t="n">
-        <v>1783.87624508755</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="G43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K43" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L43" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M43" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N43" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O43" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W43" t="n">
-        <v>2232.658375129097</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="X43" t="n">
-        <v>2004.66882423108</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="Y43" t="n">
-        <v>1783.87624508755</v>
+        <v>318.3514033993496</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1194.544891781203</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="C44" t="n">
-        <v>825.5823748407913</v>
+        <v>1498.235887820388</v>
       </c>
       <c r="D44" t="n">
-        <v>825.5823748407913</v>
+        <v>1139.970189213638</v>
       </c>
       <c r="E44" t="n">
-        <v>825.5823748407913</v>
+        <v>1139.970189213638</v>
       </c>
       <c r="F44" t="n">
-        <v>825.5823748407913</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G44" t="n">
-        <v>542.5821871309436</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H44" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I44" t="n">
         <v>46.89499644164432</v>
@@ -7670,28 +7672,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R44" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S44" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T44" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U44" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="V44" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="W44" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="X44" t="n">
-        <v>1971.284063821136</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="Y44" t="n">
-        <v>1581.144731845325</v>
+        <v>1867.1984047608</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.8792202047736</v>
+        <v>790.3481019751835</v>
       </c>
       <c r="C45" t="n">
-        <v>814.4261909236466</v>
+        <v>615.8950726940565</v>
       </c>
       <c r="D45" t="n">
-        <v>665.4917812623953</v>
+        <v>615.8950726940565</v>
       </c>
       <c r="E45" t="n">
-        <v>506.2543262569397</v>
+        <v>456.657617688601</v>
       </c>
       <c r="F45" t="n">
-        <v>359.7197682838247</v>
+        <v>310.123059715486</v>
       </c>
       <c r="G45" t="n">
-        <v>221.6448824165167</v>
+        <v>172.048173848178</v>
       </c>
       <c r="H45" t="n">
-        <v>114.6107419524668</v>
+        <v>65.01403338412808</v>
       </c>
       <c r="I45" t="n">
         <v>46.89499644164432</v>
@@ -7728,22 +7730,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K45" t="n">
-        <v>273.1268607498447</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L45" t="n">
-        <v>642.6780758583286</v>
+        <v>645.6158192373777</v>
       </c>
       <c r="M45" t="n">
-        <v>1125.906134925503</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N45" t="n">
-        <v>1637.630816213677</v>
+        <v>1640.568559592726</v>
       </c>
       <c r="O45" t="n">
-        <v>2039.343247810003</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P45" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q45" t="n">
         <v>2344.749822082216</v>
@@ -7755,22 +7757,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T45" t="n">
-        <v>2123.072528197426</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U45" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y45" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1783.87624508755</v>
+        <v>90.36185250133229</v>
       </c>
       <c r="C46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K46" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L46" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M46" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N46" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O46" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T46" t="n">
-        <v>2116.851400240302</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U46" t="n">
-        <v>1827.670254986225</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V46" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W46" t="n">
-        <v>1783.87624508755</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="X46" t="n">
-        <v>1783.87624508755</v>
+        <v>90.36185250133229</v>
       </c>
       <c r="Y46" t="n">
-        <v>1783.87624508755</v>
+        <v>90.36185250133229</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8061,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>229.6373335557741</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,10 +8300,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M6" t="n">
-        <v>303.312501347746</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8535,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>261.4978194579837</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>415.7693643006697</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9003,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>261.4978194579837</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9018,13 +9020,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>177.3009884841359</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9255,10 +9257,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>237.9065809724248</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>162.5070303356325</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9477,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998488</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>323.3866360392488</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9714,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>154.2790145108656</v>
       </c>
       <c r="M24" t="n">
-        <v>462.7376461954051</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>200.8922269696948</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9969,10 +9971,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>101.9014378473433</v>
       </c>
       <c r="Q27" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10200,16 +10202,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>262.7810435509599</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>315.4953510853424</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K33" t="n">
-        <v>47.90390621998491</v>
+        <v>108.5094987082738</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10665,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>200.8922269696948</v>
+        <v>47.90390621998491</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>261.4978194579836</v>
+        <v>47.90390621998491</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>108.5094987082737</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>402.132053707116</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,7 +11378,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K45" t="n">
-        <v>261.4978194579836</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11391,10 +11393,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>162.5070303356321</v>
       </c>
       <c r="Q45" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>114.2865076092443</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23303,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
-        <v>197.3922937521062</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U11" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23349,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>17.36810459372212</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23391,7 +23393,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>130.5311903113545</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23425,10 +23427,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>108.9366819640819</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23437,7 +23439,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23467,7 +23469,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T13" t="n">
-        <v>225.6194376234954</v>
+        <v>112.2407671004199</v>
       </c>
       <c r="U13" t="n">
         <v>286.2893338015361</v>
@@ -23495,10 +23497,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
-        <v>138.7054404458478</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>181.3631617334038</v>
@@ -23552,16 +23554,16 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>228.565359305121</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23583,7 +23585,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>136.6941370086349</v>
@@ -23592,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>66.76363414007625</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23622,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>159.6212195484502</v>
+        <v>14.27705323942814</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23659,13 +23661,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>108.9366819640819</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>109.9495965877198</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>264.8442918435686</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23750,7 +23752,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23786,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>45.79564572979507</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23823,10 +23825,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23865,13 +23867,13 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>120.4210546291173</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>130.2784035477363</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23899,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>167.4465608509556</v>
@@ -23935,13 +23937,13 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R19" t="n">
-        <v>29.49356071096834</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2893338015361</v>
@@ -23950,10 +23952,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>110.5931200167539</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23972,7 +23974,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23981,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>65.35838982845064</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>143.5774396875595</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24045,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24057,7 +24059,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>136.7065056498026</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -24093,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S21" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>143.6184697512195</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.86144769835001</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24145,7 +24147,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J22" t="n">
         <v>54.86879163620181</v>
@@ -24169,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R22" t="n">
         <v>152.8143555761653</v>
@@ -24184,16 +24186,16 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>150.6426215343276</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24209,7 +24211,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>341.0336490642972</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>87.56057130938197</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24288,7 +24290,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24330,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24342,10 +24344,10 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>215.6339251325228</v>
+        <v>70.43910215024479</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>163.2277806176366</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24421,16 +24423,16 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>175.5524658530034</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24440,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>23.82371469509638</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>22.98344714503514</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24488,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24528,19 +24530,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>53.38246657340298</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>58.38855875532697</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24652,16 +24654,16 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T28" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>208.7815735241403</v>
       </c>
       <c r="W28" t="n">
-        <v>269.6851342372356</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24680,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>414.089049841944</v>
+        <v>154.5569710948521</v>
       </c>
       <c r="H29" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24740,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>1.873988145222711</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24768,10 +24770,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>76.57988169550532</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -24804,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24825,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>150.9711902480633</v>
       </c>
     </row>
     <row r="31">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.86144769834929</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24898,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>175.5524658530037</v>
       </c>
     </row>
     <row r="32">
@@ -24914,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>14.2407486944241</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24935,7 +24937,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>161.0856939458573</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24983,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24999,10 +25001,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>145.5946088442691</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -25044,10 +25046,10 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S33" t="n">
-        <v>105.6924183331601</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25129,10 +25131,10 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>17.5474909134079</v>
+        <v>269.6851342372358</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25154,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>414.089049841944</v>
+        <v>193.259654557151</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,7 +25204,7 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
         <v>217.7829317747374</v>
@@ -25211,10 +25213,10 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>34.18005670970194</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25230,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25242,13 +25244,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>120.4210546291172</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25284,7 +25286,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>196.5458070472945</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>63.90449286997435</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.4465608509556</v>
@@ -25357,7 +25359,7 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R37" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>214.5288682289405</v>
@@ -25369,10 +25371,10 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>277.4323214768429</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25388,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>212.0721250603254</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>255.7827550990516</v>
       </c>
       <c r="H38" t="n">
         <v>327.0451232326991</v>
@@ -25436,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006111</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25515,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749141</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S39" t="n">
         <v>159.6212195484502</v>
@@ -25558,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>54.06789032788008</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>139.0783256288915</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>54.86879163620181</v>
@@ -25591,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R40" t="n">
         <v>152.8143555761653</v>
@@ -25603,7 +25605,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25612,10 +25614,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>175.3188013179488</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25628,25 +25630,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>63.48492079608121</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>181.3631617334038</v>
@@ -25685,10 +25687,10 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
-        <v>62.90535776225482</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25704,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>42.92542614420708</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25764,13 +25766,13 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>130.2784035477362</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25795,10 +25797,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>44.12576598575865</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>157.3867970498209</v>
@@ -25846,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>175.5524658530032</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>65.86577797208116</v>
       </c>
       <c r="G44" t="n">
-        <v>133.9188640091947</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2485578939812</v>
@@ -25928,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25962,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>49.10074148265532</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25995,10 +25997,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>165.5317197306519</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>124.2146335995367</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26074,19 +26076,19 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V46" t="n">
-        <v>208.7815735241399</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>576990.8304925053</v>
+        <v>576990.8304925051</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>576990.8304925051</v>
+        <v>576990.8304925053</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>576990.830492505</v>
+        <v>576990.8304925052</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>576990.8304925051</v>
+        <v>576990.830492505</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>576990.8304925052</v>
+        <v>576990.830492505</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>576990.8304925051</v>
+        <v>576990.8304925055</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>576990.8304925051</v>
+        <v>576990.830492505</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>576990.830492505</v>
+        <v>576990.8304925051</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516053</v>
       </c>
       <c r="E2" t="n">
-        <v>383345.3446581121</v>
+        <v>383345.3446581122</v>
       </c>
       <c r="F2" t="n">
         <v>383345.3446581122</v>
       </c>
       <c r="G2" t="n">
-        <v>383345.344658112</v>
+        <v>383345.3446581123</v>
       </c>
       <c r="H2" t="n">
+        <v>383345.3446581121</v>
+      </c>
+      <c r="I2" t="n">
         <v>383345.3446581122</v>
-      </c>
-      <c r="I2" t="n">
-        <v>383345.3446581121</v>
       </c>
       <c r="J2" t="n">
         <v>383345.3446581122</v>
       </c>
       <c r="K2" t="n">
+        <v>383345.3446581122</v>
+      </c>
+      <c r="L2" t="n">
+        <v>383345.3446581121</v>
+      </c>
+      <c r="M2" t="n">
+        <v>383345.3446581122</v>
+      </c>
+      <c r="N2" t="n">
         <v>383345.3446581123</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>383345.3446581122</v>
-      </c>
-      <c r="M2" t="n">
-        <v>383345.3446581123</v>
-      </c>
-      <c r="N2" t="n">
-        <v>383345.3446581122</v>
-      </c>
-      <c r="O2" t="n">
-        <v>383345.3446581121</v>
       </c>
       <c r="P2" t="n">
         <v>383345.3446581122</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910622</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.53382007602</v>
+        <v>86018.533820076</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>312595.3744187172</v>
+        <v>312595.3744187171</v>
       </c>
       <c r="C4" t="n">
         <v>312595.3744187171</v>
@@ -26457,7 +26459,7 @@
         <v>35464.97636158489</v>
       </c>
       <c r="P4" t="n">
-        <v>35464.97636158488</v>
+        <v>35464.97636158489</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>153609.2084375786</v>
+        <v>153609.2084375785</v>
       </c>
       <c r="C6" t="n">
-        <v>234378.6399691266</v>
+        <v>234378.6399691265</v>
       </c>
       <c r="D6" t="n">
         <v>234378.6399691265</v>
       </c>
       <c r="E6" t="n">
-        <v>-39953.69660787202</v>
+        <v>-39953.69660787191</v>
       </c>
       <c r="F6" t="n">
-        <v>305658.6461710807</v>
+        <v>305658.6461710808</v>
       </c>
       <c r="G6" t="n">
+        <v>305658.6461710809</v>
+      </c>
+      <c r="H6" t="n">
         <v>305658.6461710806</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>305658.6461710808</v>
-      </c>
-      <c r="I6" t="n">
-        <v>305658.6461710806</v>
       </c>
       <c r="J6" t="n">
         <v>242598.7035719745</v>
       </c>
       <c r="K6" t="n">
-        <v>305658.6461710808</v>
+        <v>305658.6461710807</v>
       </c>
       <c r="L6" t="n">
-        <v>305658.6461710807</v>
+        <v>305658.6461710806</v>
       </c>
       <c r="M6" t="n">
         <v>219640.1123510048</v>
       </c>
       <c r="N6" t="n">
+        <v>305658.6461710809</v>
+      </c>
+      <c r="O6" t="n">
         <v>305658.6461710808</v>
       </c>
-      <c r="O6" t="n">
-        <v>305658.6461710806</v>
-      </c>
       <c r="P6" t="n">
-        <v>305658.6461710808</v>
+        <v>305658.6461710807</v>
       </c>
     </row>
   </sheetData>
@@ -26753,7 +26755,7 @@
         <v>301.9048087062786</v>
       </c>
       <c r="H3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="I3" t="n">
         <v>301.9048087062786</v>
@@ -26771,7 +26773,7 @@
         <v>301.9048087062786</v>
       </c>
       <c r="N3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="O3" t="n">
         <v>301.9048087062787</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27382,25 +27384,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>129.2287717821511</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>10.13979328157633</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27436,7 +27438,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27458,19 +27460,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>87.11603458920352</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -27479,7 +27481,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27506,7 +27508,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27524,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>24.39050272738672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27576,16 +27578,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>177.1527827970778</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27664,19 +27666,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>118.5417363013079</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27740,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>50.10013888409016</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>49.74981582707102</v>
       </c>
     </row>
     <row r="7">
@@ -27786,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>57.07350359897362</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>133.416483154574</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -27813,10 +27815,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>184.0288285387892</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,10 +27864,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>344.2880590747468</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27898,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27910,10 +27912,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27932,7 +27934,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27941,13 +27943,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -27983,16 +27985,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>21.17305198522826</v>
+        <v>244.1622738401522</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>56.32934533914265</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28035,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28059,7 +28061,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -32467,7 +32469,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I20" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J20" t="n">
         <v>103.0102241525006</v>
@@ -32488,22 +32490,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P20" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q20" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R20" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S20" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T20" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H21" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I21" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J21" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K21" t="n">
         <v>104.8606541711232</v>
@@ -32558,25 +32560,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M21" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N21" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O21" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P21" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R21" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S21" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T21" t="n">
         <v>2.617457728311981</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H22" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I22" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J22" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K22" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L22" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M22" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N22" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O22" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P22" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q22" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R22" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S22" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T22" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33889,7 +33891,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I38" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J38" t="n">
         <v>103.0102241525006</v>
@@ -33910,22 +33912,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P38" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q38" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R38" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S38" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T38" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U38" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H39" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I39" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J39" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K39" t="n">
         <v>104.8606541711232</v>
@@ -33980,25 +33982,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M39" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N39" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O39" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P39" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q39" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R39" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S39" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T39" t="n">
         <v>2.617457728311981</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H40" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I40" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J40" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K40" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L40" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M40" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N40" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O40" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P40" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q40" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R40" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S40" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T40" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34781,7 +34783,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>91.0829537758999</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35018,10 +35020,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M6" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35255,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>99.8112771299739</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K12" t="n">
-        <v>228.5170346547479</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L12" t="n">
         <v>373.2840556651353</v>
@@ -35498,7 +35500,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N12" t="n">
-        <v>516.8936174628016</v>
+        <v>453.3206074199177</v>
       </c>
       <c r="O12" t="n">
         <v>405.7701329255822</v>
@@ -35723,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K15" t="n">
-        <v>228.5170346547479</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L15" t="n">
         <v>373.2840556651353</v>
@@ -35738,13 +35740,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O15" t="n">
-        <v>405.7701329255822</v>
+        <v>189.2088021329886</v>
       </c>
       <c r="P15" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35975,10 +35977,10 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O18" t="n">
-        <v>249.8143946212776</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P18" t="n">
-        <v>308.4914891638518</v>
+        <v>152.5357508595472</v>
       </c>
       <c r="Q18" t="n">
         <v>152.98832074971</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K20" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L20" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M20" t="n">
         <v>432.2802359107712</v>
@@ -36133,13 +36135,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O20" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P20" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q20" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K21" t="n">
-        <v>231.4844522093428</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L21" t="n">
         <v>373.2840556651353</v>
@@ -36209,10 +36211,10 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N21" t="n">
-        <v>360.9378791584968</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O21" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P21" t="n">
         <v>308.4914891638518</v>
@@ -36279,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L22" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M22" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N22" t="n">
         <v>127.4430518046842</v>
@@ -36294,7 +36296,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P22" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36434,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K24" t="n">
         <v>231.4844522093428</v>
       </c>
       <c r="L24" t="n">
-        <v>373.2840556651353</v>
+        <v>156.7227248725416</v>
       </c>
       <c r="M24" t="n">
-        <v>485.1417330183086</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N24" t="n">
         <v>516.8936174628016</v>
@@ -36455,7 +36457,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K27" t="n">
-        <v>167.911442166459</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651353</v>
@@ -36689,10 +36691,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P27" t="n">
-        <v>308.4914891638518</v>
+        <v>91.93015837125802</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>231.4844522093428</v>
@@ -36920,16 +36922,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N30" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O30" t="n">
         <v>405.7701329255822</v>
       </c>
       <c r="P30" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q30" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>14.92312141674913</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L33" t="n">
         <v>373.2840556651353</v>
@@ -37385,7 +37387,7 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K36" t="n">
-        <v>167.911442166459</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L36" t="n">
         <v>373.2840556651353</v>
@@ -37403,7 +37405,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K38" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L38" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M38" t="n">
         <v>432.2802359107712</v>
@@ -37555,13 +37557,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O38" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P38" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q38" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K39" t="n">
-        <v>228.5170346547479</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L39" t="n">
         <v>373.2840556651353</v>
@@ -37634,13 +37636,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O39" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P39" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,13 +37703,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L40" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M40" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N40" t="n">
         <v>127.4430518046842</v>
@@ -37716,7 +37718,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P40" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37856,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>231.4844522093429</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L42" t="n">
         <v>373.2840556651353</v>
       </c>
       <c r="M42" t="n">
-        <v>424.5361405300196</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N42" t="n">
         <v>516.8936174628016</v>
@@ -37877,7 +37879,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>228.5170346547479</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L45" t="n">
         <v>373.2840556651353</v>
@@ -38111,10 +38113,10 @@
         <v>405.7701329255823</v>
       </c>
       <c r="P45" t="n">
-        <v>308.4914891638518</v>
+        <v>152.5357508595468</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_4_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_4_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1998845.865311662</v>
+        <v>1957022.083642655</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.110075584</v>
+        <v>8768687.110075574</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>225.4542698385318</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>64.1386326986768</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -703,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>140.9550140528144</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -746,7 +746,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>70.52904586619742</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>205.5810588664028</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>87.7061602166668</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -943,28 +943,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>109.4031921034047</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>155.9328799502333</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>110.9174757594851</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>198.7050131246913</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>103.0088977318019</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1232,10 +1232,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>7.532709320767368</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>94.41066626107992</v>
       </c>
     </row>
     <row r="10">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>267.6438624630175</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>8.961088461694905</v>
       </c>
       <c r="I11" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1469,7 +1469,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I12" t="n">
-        <v>67.03858805571426</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S12" t="n">
         <v>159.6212195484502</v>
@@ -1505,7 +1505,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U12" t="n">
-        <v>95.36746939102986</v>
+        <v>182.9732335581771</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>16.83786409935511</v>
       </c>
       <c r="H13" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>113.3786705230755</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1624,7 +1624,7 @@
         <v>414.089049841944</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>84.58108488913999</v>
       </c>
       <c r="I14" t="n">
         <v>163.6851955497072</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>120.675609412292</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1697,16 +1697,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H15" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S15" t="n">
-        <v>145.3441663090221</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
-        <v>197.5472709665096</v>
+        <v>67.26886741877343</v>
       </c>
       <c r="U15" t="n">
         <v>225.8986597023843</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1770,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>4.812045700447308</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>57.49696426323582</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H16" t="n">
         <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>117.889549819912</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>181.3631617334038</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>178.5166184749615</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>154.5117248826789</v>
       </c>
       <c r="X19" t="n">
-        <v>115.1165353722833</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>181.3631617334038</v>
+        <v>139.4042112361043</v>
       </c>
       <c r="T20" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
-        <v>107.6711182064217</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2171,7 +2171,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>8.362706743581283</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>136.6941370086349</v>
@@ -2180,7 +2180,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S21" t="n">
         <v>159.6212195484502</v>
@@ -2216,13 +2216,13 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8986597023843</v>
+        <v>181.5532402218567</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2241,16 +2241,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>114.7943575370064</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>101.4950217895004</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2323,19 +2323,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
-        <v>239.4845519233171</v>
+        <v>57.34903727917313</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
         <v>217.7829317747374</v>
@@ -2377,13 +2377,13 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2411,13 +2411,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S24" t="n">
         <v>159.6212195484502</v>
@@ -2453,13 +2453,13 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8986597023843</v>
+        <v>172.5161931289813</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>181.2558810106748</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>16.60419956430074</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>103.3189067219407</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>358.9101269683842</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>319.5158693862994</v>
       </c>
     </row>
     <row r="27">
@@ -2645,16 +2645,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>1.45074264216445</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T27" t="n">
         <v>197.5472709665096</v>
@@ -2693,7 +2693,7 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>73.45432151661288</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -2718,16 +2718,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>43.3560697996877</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>93.78175933261998</v>
       </c>
     </row>
     <row r="29">
@@ -2794,25 +2794,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>259.5320787470919</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>11.59628999391623</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2882,16 +2882,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>197.5472709665096</v>
+        <v>159.8926002746995</v>
       </c>
       <c r="U30" t="n">
         <v>225.8986597023843</v>
@@ -2939,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>54.71150552924105</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2955,16 +2955,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>114.7943575370064</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>43.03218749909109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>20.27746778754652</v>
+        <v>177.9117880033996</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3113,22 +3113,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>1.850456720369667</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S33" t="n">
         <v>159.6212195484502</v>
@@ -3164,7 +3164,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8986597023843</v>
+        <v>172.5161931289813</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>44.82517720312399</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>16.60419956430029</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>220.8293952847929</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>124.4249328614589</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3359,13 +3359,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3398,7 +3398,7 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T36" t="n">
-        <v>1.001463919215157</v>
+        <v>144.1648043931067</v>
       </c>
       <c r="U36" t="n">
         <v>225.8986597023843</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>115.9274873119629</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>9.090676859747658</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3483,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,25 +3505,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>158.3062947428924</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>50.72673787212241</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,16 +3559,16 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3596,13 +3596,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T39" t="n">
-        <v>53.92880121529013</v>
+        <v>144.1648043931067</v>
       </c>
       <c r="U39" t="n">
         <v>225.8986597023843</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>91.35315769505117</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>268.9755074231831</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>343.3911249456302</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>139.3238358590074</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3827,16 +3827,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H42" t="n">
-        <v>105.9637990594094</v>
+        <v>45.59910121103273</v>
       </c>
       <c r="I42" t="n">
         <v>67.03858805571424</v>
@@ -3878,13 +3878,13 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>75.49458165574123</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>101.2952820371726</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>208.1860399441541</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>341.0102677696303</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.089049841944</v>
+        <v>166.003818838786</v>
       </c>
       <c r="H44" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4055,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4070,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
-        <v>17.93784657305892</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>59.83930139749141</v>
       </c>
       <c r="S45" t="n">
-        <v>159.6212195484502</v>
+        <v>159.1350255623083</v>
       </c>
       <c r="T45" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>43.03218749909109</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4194,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>154.5117248826789</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>752.9257720901863</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C2" t="n">
-        <v>752.9257720901863</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D2" t="n">
-        <v>525.1941863946996</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E2" t="n">
-        <v>525.1941863946996</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F2" t="n">
-        <v>518.2486856454962</v>
+        <v>308.7395386897029</v>
       </c>
       <c r="G2" t="n">
-        <v>274.7999090013961</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V2" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W2" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X2" t="n">
-        <v>752.9257720901863</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y2" t="n">
-        <v>752.9257720901863</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>414.6641751762832</v>
+        <v>547.0914794406409</v>
       </c>
       <c r="C3" t="n">
-        <v>240.2111458951562</v>
+        <v>372.6384501595139</v>
       </c>
       <c r="D3" t="n">
-        <v>91.27673623390493</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4415,7 +4415,7 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>304.2053859195205</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
         <v>304.2053859195205</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V3" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W3" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X3" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y3" t="n">
-        <v>582.8795121963512</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="4">
@@ -4515,25 +4515,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>502.8591282797204</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C5" t="n">
-        <v>502.8591282797204</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D5" t="n">
-        <v>502.8591282797204</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E5" t="n">
-        <v>502.8591282797204</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F5" t="n">
         <v>259.4103516356203</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>710.516763498309</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>710.516763498309</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W5" t="n">
-        <v>710.516763498309</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X5" t="n">
-        <v>710.516763498309</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y5" t="n">
-        <v>710.516763498309</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>304.2053859195205</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4673,25 +4673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>853.5488806587123</v>
       </c>
       <c r="T6" t="n">
-        <v>588.4532163200711</v>
+        <v>853.5488806587123</v>
       </c>
       <c r="U6" t="n">
-        <v>588.4532163200711</v>
+        <v>853.5488806587123</v>
       </c>
       <c r="V6" t="n">
-        <v>588.4532163200711</v>
+        <v>853.5488806587123</v>
       </c>
       <c r="W6" t="n">
-        <v>345.004439675971</v>
+        <v>610.1001040146123</v>
       </c>
       <c r="X6" t="n">
-        <v>345.004439675971</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="Y6" t="n">
-        <v>187.4964801302808</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
-        <v>852.019301208126</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H7" t="n">
-        <v>852.019301208126</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I7" t="n">
-        <v>852.019301208126</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>852.019301208126</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>266.3558523848238</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C8" t="n">
-        <v>266.3558523848238</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D8" t="n">
-        <v>266.3558523848238</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E8" t="n">
-        <v>266.3558523848238</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="F8" t="n">
-        <v>259.4103516356203</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G8" t="n">
         <v>243.9530410142718</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>710.516763498309</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>467.067986854209</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>467.067986854209</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y8" t="n">
-        <v>467.067986854209</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>453.6378659568754</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C9" t="n">
-        <v>279.1848366757484</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D9" t="n">
-        <v>279.1848366757484</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E9" t="n">
-        <v>279.1848366757484</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F9" t="n">
-        <v>132.6502787026334</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G9" t="n">
-        <v>132.6502787026334</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4889,19 +4889,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4913,22 +4913,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>461.2466632505798</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V9" t="n">
-        <v>461.2466632505798</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W9" t="n">
-        <v>453.6378659568754</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X9" t="n">
-        <v>453.6378659568754</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y9" t="n">
-        <v>453.6378659568754</v>
+        <v>391.9193775183306</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>900.8526811433298</v>
+        <v>825.1982043447649</v>
       </c>
       <c r="C11" t="n">
-        <v>900.8526811433298</v>
+        <v>825.1982043447649</v>
       </c>
       <c r="D11" t="n">
-        <v>900.8526811433298</v>
+        <v>466.9325057380144</v>
       </c>
       <c r="E11" t="n">
-        <v>630.5053453221001</v>
+        <v>466.9325057380144</v>
       </c>
       <c r="F11" t="n">
-        <v>630.5053453221001</v>
+        <v>55.94660094840685</v>
       </c>
       <c r="G11" t="n">
-        <v>212.2335778049849</v>
+        <v>55.94660094840685</v>
       </c>
       <c r="H11" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I11" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J11" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L11" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M11" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N11" t="n">
         <v>1610.799342072557</v>
@@ -5068,25 +5068,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S11" t="n">
-        <v>2344.749822082216</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T11" t="n">
-        <v>2344.749822082216</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="U11" t="n">
-        <v>2344.749822082216</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="V11" t="n">
-        <v>2013.686934738646</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="W11" t="n">
-        <v>1660.918279468531</v>
+        <v>1588.803294581656</v>
       </c>
       <c r="X11" t="n">
-        <v>1287.452521207452</v>
+        <v>1215.337536320577</v>
       </c>
       <c r="Y11" t="n">
-        <v>1287.452521207452</v>
+        <v>825.1982043447649</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>814.4261909236466</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="C12" t="n">
-        <v>814.4261909236466</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="D12" t="n">
         <v>665.4917812623953</v>
@@ -5120,22 +5120,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J12" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K12" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L12" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373777</v>
       </c>
       <c r="M12" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N12" t="n">
-        <v>1637.630816213677</v>
+        <v>1640.568559592726</v>
       </c>
       <c r="O12" t="n">
-        <v>2039.343247810003</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P12" t="n">
         <v>2344.749822082216</v>
@@ -5144,28 +5144,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R12" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S12" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T12" t="n">
-        <v>1983.973569036802</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U12" t="n">
-        <v>1887.642791874146</v>
+        <v>1738.708382212894</v>
       </c>
       <c r="V12" t="n">
-        <v>1652.490683642403</v>
+        <v>1503.556273981152</v>
       </c>
       <c r="W12" t="n">
-        <v>1398.253326914201</v>
+        <v>1249.31891725295</v>
       </c>
       <c r="X12" t="n">
-        <v>1190.401826708669</v>
+        <v>1041.467417047417</v>
       </c>
       <c r="Y12" t="n">
-        <v>982.6415279437147</v>
+        <v>833.7071182824634</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.244663817042</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="C13" t="n">
-        <v>493.244663817042</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="D13" t="n">
-        <v>493.244663817042</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="E13" t="n">
-        <v>493.244663817042</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="F13" t="n">
-        <v>346.3547163191317</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="G13" t="n">
-        <v>346.3547163191317</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H13" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I13" t="n">
         <v>46.89499644164432</v>
@@ -5202,7 +5202,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K13" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L13" t="n">
         <v>194.9121237200978</v>
@@ -5229,22 +5229,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T13" t="n">
-        <v>493.244663817042</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U13" t="n">
-        <v>493.244663817042</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V13" t="n">
-        <v>493.244663817042</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="W13" t="n">
-        <v>493.244663817042</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="X13" t="n">
-        <v>493.244663817042</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="Y13" t="n">
-        <v>493.244663817042</v>
+        <v>63.90293997634646</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1427.279502709952</v>
+        <v>1870.980640598662</v>
       </c>
       <c r="C14" t="n">
-        <v>1427.279502709952</v>
+        <v>1870.980640598662</v>
       </c>
       <c r="D14" t="n">
-        <v>1427.279502709952</v>
+        <v>1512.714941991911</v>
       </c>
       <c r="E14" t="n">
-        <v>1041.491250111708</v>
+        <v>1126.926689393667</v>
       </c>
       <c r="F14" t="n">
-        <v>630.5053453221001</v>
+        <v>715.9407846040597</v>
       </c>
       <c r="G14" t="n">
-        <v>212.2335778049849</v>
+        <v>297.6690170869445</v>
       </c>
       <c r="H14" t="n">
         <v>212.2335778049849</v>
@@ -5278,16 +5278,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L14" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M14" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N14" t="n">
         <v>1610.799342072557</v>
@@ -5302,28 +5302,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R14" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S14" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T14" t="n">
-        <v>2270.376276991246</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U14" t="n">
-        <v>2270.376276991246</v>
+        <v>1870.980640598662</v>
       </c>
       <c r="V14" t="n">
-        <v>1939.313389647675</v>
+        <v>1870.980640598662</v>
       </c>
       <c r="W14" t="n">
-        <v>1817.418834685764</v>
+        <v>1870.980640598662</v>
       </c>
       <c r="X14" t="n">
-        <v>1817.418834685764</v>
+        <v>1870.980640598662</v>
       </c>
       <c r="Y14" t="n">
-        <v>1427.279502709952</v>
+        <v>1870.980640598662</v>
       </c>
     </row>
     <row r="15">
@@ -5333,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>636.554030853528</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C15" t="n">
-        <v>462.101001572401</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D15" t="n">
-        <v>313.1665919111497</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E15" t="n">
-        <v>153.9291369056942</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F15" t="n">
-        <v>153.9291369056942</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G15" t="n">
-        <v>153.9291369056942</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H15" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I15" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J15" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K15" t="n">
-        <v>336.0641406922996</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L15" t="n">
-        <v>705.6153558007836</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.843414867958</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.568096156132</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O15" t="n">
         <v>1887.88481026779</v>
@@ -5384,25 +5384,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S15" t="n">
-        <v>2137.493794095839</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T15" t="n">
-        <v>1937.95109614987</v>
+        <v>2055.124177269372</v>
       </c>
       <c r="U15" t="n">
-        <v>1709.770631804027</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="V15" t="n">
-        <v>1474.618523572284</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W15" t="n">
-        <v>1220.381166844083</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X15" t="n">
-        <v>1012.52966663855</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y15" t="n">
-        <v>804.7693678735961</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="C16" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="D16" t="n">
-        <v>607.7685734363102</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="E16" t="n">
-        <v>459.8554798539171</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="F16" t="n">
-        <v>459.8554798539171</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="G16" t="n">
-        <v>401.7777381738809</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="H16" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I16" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J16" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="K16" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L16" t="n">
         <v>194.9121237200978</v>
@@ -5466,22 +5466,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T16" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U16" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="V16" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="W16" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="X16" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="Y16" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
     </row>
     <row r="17">
@@ -5515,10 +5515,10 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J17" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L17" t="n">
         <v>762.591673824455</v>
@@ -5539,28 +5539,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S17" t="n">
-        <v>2087.181164129222</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T17" t="n">
-        <v>1867.1984047608</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="U17" t="n">
-        <v>1613.411982645667</v>
+        <v>1687.785527736638</v>
       </c>
       <c r="V17" t="n">
-        <v>1282.349095302096</v>
+        <v>1356.722640393067</v>
       </c>
       <c r="W17" t="n">
-        <v>929.5804400319823</v>
+        <v>1003.953985122953</v>
       </c>
       <c r="X17" t="n">
-        <v>556.1146817709025</v>
+        <v>823.6341684815778</v>
       </c>
       <c r="Y17" t="n">
-        <v>165.9753497950908</v>
+        <v>433.4948365057661</v>
       </c>
     </row>
     <row r="18">
@@ -5612,7 +5612,7 @@
         <v>2042.280991189052</v>
       </c>
       <c r="P18" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q18" t="n">
         <v>2344.749822082216</v>
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.89499644164432</v>
+        <v>197.0116358539801</v>
       </c>
       <c r="C19" t="n">
-        <v>46.89499644164432</v>
+        <v>197.0116358539801</v>
       </c>
       <c r="D19" t="n">
         <v>46.89499644164432</v>
@@ -5700,25 +5700,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S19" t="n">
-        <v>391.0727469424309</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T19" t="n">
-        <v>163.1743251005163</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U19" t="n">
-        <v>163.1743251005163</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V19" t="n">
-        <v>163.1743251005163</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="W19" t="n">
-        <v>163.1743251005163</v>
+        <v>197.0116358539801</v>
       </c>
       <c r="X19" t="n">
-        <v>46.89499644164432</v>
+        <v>197.0116358539801</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.89499644164432</v>
+        <v>197.0116358539801</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1371.839859437666</v>
+        <v>876.152668748367</v>
       </c>
       <c r="C20" t="n">
-        <v>1371.839859437666</v>
+        <v>876.152668748367</v>
       </c>
       <c r="D20" t="n">
-        <v>1371.839859437666</v>
+        <v>876.152668748367</v>
       </c>
       <c r="E20" t="n">
-        <v>1371.839859437666</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F20" t="n">
-        <v>960.8539546480588</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G20" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H20" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I20" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275677</v>
       </c>
       <c r="L20" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M20" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N20" t="n">
         <v>1610.799342072557</v>
@@ -5776,28 +5776,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R20" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S20" t="n">
-        <v>2087.181164129222</v>
+        <v>2203.937487500293</v>
       </c>
       <c r="T20" t="n">
-        <v>1867.1984047608</v>
+        <v>1983.954728131871</v>
       </c>
       <c r="U20" t="n">
-        <v>1758.439699501788</v>
+        <v>1983.954728131871</v>
       </c>
       <c r="V20" t="n">
-        <v>1758.439699501788</v>
+        <v>1652.8918407883</v>
       </c>
       <c r="W20" t="n">
-        <v>1758.439699501788</v>
+        <v>1652.8918407883</v>
       </c>
       <c r="X20" t="n">
-        <v>1758.439699501788</v>
+        <v>1652.8918407883</v>
       </c>
       <c r="Y20" t="n">
-        <v>1758.439699501788</v>
+        <v>1262.752508812489</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>850.7918407605284</v>
+        <v>921.1634746939509</v>
       </c>
       <c r="C21" t="n">
-        <v>676.3388114794014</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D21" t="n">
-        <v>527.4044018181502</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E21" t="n">
-        <v>368.1669468126947</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F21" t="n">
-        <v>359.7197682838247</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G21" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H21" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I21" t="n">
         <v>46.89499644164432</v>
@@ -5834,13 +5834,13 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K21" t="n">
-        <v>121.6684232076319</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L21" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M21" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N21" t="n">
         <v>1486.172378671464</v>
@@ -5855,28 +5855,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R21" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S21" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T21" t="n">
-        <v>1983.973569036802</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U21" t="n">
-        <v>1755.793104690959</v>
+        <v>1740.142718916248</v>
       </c>
       <c r="V21" t="n">
-        <v>1520.640996459217</v>
+        <v>1504.990610684506</v>
       </c>
       <c r="W21" t="n">
-        <v>1266.403639731015</v>
+        <v>1504.990610684506</v>
       </c>
       <c r="X21" t="n">
-        <v>1058.552139525482</v>
+        <v>1297.139110478973</v>
       </c>
       <c r="Y21" t="n">
-        <v>850.7918407605284</v>
+        <v>1089.378811714019</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>215.8311793695513</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C22" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D22" t="n">
-        <v>46.89499644164432</v>
+        <v>457.6519340239745</v>
       </c>
       <c r="E22" t="n">
-        <v>46.89499644164432</v>
+        <v>309.7388404415814</v>
       </c>
       <c r="F22" t="n">
-        <v>46.89499644164432</v>
+        <v>162.848892943671</v>
       </c>
       <c r="G22" t="n">
-        <v>46.89499644164432</v>
+        <v>162.848892943671</v>
       </c>
       <c r="H22" t="n">
-        <v>46.89499644164432</v>
+        <v>162.848892943671</v>
       </c>
       <c r="I22" t="n">
         <v>46.89499644164432</v>
@@ -5946,16 +5946,16 @@
         <v>607.7685734363102</v>
       </c>
       <c r="V22" t="n">
-        <v>505.2483494065119</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W22" t="n">
-        <v>215.8311793695513</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X22" t="n">
-        <v>215.8311793695513</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y22" t="n">
-        <v>215.8311793695513</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1443.838440237577</v>
+        <v>908.8833370410171</v>
       </c>
       <c r="C23" t="n">
-        <v>1443.838440237577</v>
+        <v>908.8833370410171</v>
       </c>
       <c r="D23" t="n">
-        <v>1085.572741630827</v>
+        <v>908.8833370410171</v>
       </c>
       <c r="E23" t="n">
-        <v>699.7844890325823</v>
+        <v>523.0950844427728</v>
       </c>
       <c r="F23" t="n">
-        <v>288.7985842429748</v>
+        <v>523.0950844427728</v>
       </c>
       <c r="G23" t="n">
-        <v>288.7985842429748</v>
+        <v>104.8233169256576</v>
       </c>
       <c r="H23" t="n">
         <v>46.89499644164432</v>
@@ -6010,31 +6010,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q23" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R23" t="n">
         <v>2270.376276991246</v>
       </c>
       <c r="S23" t="n">
-        <v>2270.376276991246</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T23" t="n">
-        <v>2050.393517622824</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U23" t="n">
-        <v>1796.607095507691</v>
+        <v>1613.411982645668</v>
       </c>
       <c r="V23" t="n">
-        <v>1796.607095507691</v>
+        <v>1282.349095302097</v>
       </c>
       <c r="W23" t="n">
-        <v>1443.838440237577</v>
+        <v>1282.349095302097</v>
       </c>
       <c r="X23" t="n">
-        <v>1443.838440237577</v>
+        <v>908.8833370410171</v>
       </c>
       <c r="Y23" t="n">
-        <v>1443.838440237577</v>
+        <v>908.8833370410171</v>
       </c>
     </row>
     <row r="24">
@@ -6044,34 +6044,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.8792202047736</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C24" t="n">
-        <v>814.4261909236466</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D24" t="n">
-        <v>665.4917812623953</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E24" t="n">
-        <v>506.2543262569397</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F24" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G24" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H24" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I24" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J24" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K24" t="n">
-        <v>336.0641406922996</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L24" t="n">
         <v>491.2196383161158</v>
@@ -6092,28 +6092,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R24" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S24" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T24" t="n">
-        <v>1983.973569036802</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U24" t="n">
-        <v>1755.793104690959</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V24" t="n">
-        <v>1755.793104690959</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.706356195328</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.854855989795</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y24" t="n">
-        <v>1157.094557224842</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C25" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D25" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="E25" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="F25" t="n">
-        <v>1783.87624508755</v>
+        <v>460.8786259383999</v>
       </c>
       <c r="G25" t="n">
-        <v>1783.87624508755</v>
+        <v>291.7406856849093</v>
       </c>
       <c r="H25" t="n">
-        <v>1783.87624508755</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="I25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K25" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L25" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M25" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N25" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O25" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V25" t="n">
-        <v>2090.06533387633</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W25" t="n">
-        <v>1800.648163839369</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X25" t="n">
-        <v>1800.648163839369</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y25" t="n">
-        <v>1800.648163839369</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1325.250045950391</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="C26" t="n">
-        <v>956.2875290099796</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="D26" t="n">
-        <v>598.0218304032292</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="E26" t="n">
-        <v>212.2335778049849</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F26" t="n">
-        <v>212.2335778049849</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G26" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H26" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I26" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K26" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L26" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M26" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N26" t="n">
         <v>1610.799342072557</v>
@@ -6253,25 +6253,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S26" t="n">
-        <v>2161.554709220192</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T26" t="n">
-        <v>1941.571949851771</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U26" t="n">
-        <v>1687.785527736638</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V26" t="n">
-        <v>1687.785527736638</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W26" t="n">
-        <v>1687.785527736638</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X26" t="n">
-        <v>1687.785527736638</v>
+        <v>1971.284063821136</v>
       </c>
       <c r="Y26" t="n">
-        <v>1687.785527736638</v>
+        <v>1648.540761410733</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>842.3446622316584</v>
+        <v>783.0885888266431</v>
       </c>
       <c r="C27" t="n">
-        <v>667.8916329505314</v>
+        <v>608.6355595455161</v>
       </c>
       <c r="D27" t="n">
-        <v>518.9572232892801</v>
+        <v>459.7011498842648</v>
       </c>
       <c r="E27" t="n">
-        <v>359.7197682838247</v>
+        <v>300.4636948788093</v>
       </c>
       <c r="F27" t="n">
-        <v>359.7197682838247</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="G27" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H27" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I27" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J27" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K27" t="n">
-        <v>336.0641406922996</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L27" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.568096156132</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O27" t="n">
-        <v>2102.280527752458</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P27" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q27" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R27" t="n">
-        <v>2343.284425473969</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S27" t="n">
-        <v>2343.284425473969</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T27" t="n">
-        <v>2143.741727528</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U27" t="n">
-        <v>1915.561263182157</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V27" t="n">
-        <v>1680.409154950415</v>
+        <v>1621.153081545399</v>
       </c>
       <c r="W27" t="n">
-        <v>1426.171798222213</v>
+        <v>1366.915724817198</v>
       </c>
       <c r="X27" t="n">
-        <v>1218.32029801668</v>
+        <v>1159.064224611665</v>
       </c>
       <c r="Y27" t="n">
-        <v>1010.559999251726</v>
+        <v>951.3039258467111</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.89499644164432</v>
+        <v>513.039523605381</v>
       </c>
       <c r="C28" t="n">
-        <v>46.89499644164432</v>
+        <v>513.039523605381</v>
       </c>
       <c r="D28" t="n">
-        <v>46.89499644164432</v>
+        <v>362.9228841930452</v>
       </c>
       <c r="E28" t="n">
-        <v>46.89499644164432</v>
+        <v>362.9228841930452</v>
       </c>
       <c r="F28" t="n">
-        <v>46.89499644164432</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="G28" t="n">
         <v>46.89499644164432</v>
@@ -6414,22 +6414,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T28" t="n">
-        <v>379.8701515943957</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U28" t="n">
-        <v>90.68900634031877</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V28" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W28" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X28" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.89499644164432</v>
+        <v>513.039523605381</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1584.684223757015</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="C29" t="n">
-        <v>1215.721706816604</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="D29" t="n">
-        <v>1215.721706816604</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="E29" t="n">
-        <v>1215.721706816604</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F29" t="n">
-        <v>804.735802026996</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G29" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H29" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I29" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K29" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L29" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M29" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N29" t="n">
         <v>1610.799342072557</v>
@@ -6484,31 +6484,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q29" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R29" t="n">
-        <v>2344.749822082217</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S29" t="n">
-        <v>2344.749822082217</v>
+        <v>2258.662852754966</v>
       </c>
       <c r="T29" t="n">
-        <v>2344.749822082217</v>
+        <v>2038.680093386545</v>
       </c>
       <c r="U29" t="n">
-        <v>2344.749822082217</v>
+        <v>2038.680093386545</v>
       </c>
       <c r="V29" t="n">
-        <v>2344.749822082217</v>
+        <v>2038.680093386545</v>
       </c>
       <c r="W29" t="n">
-        <v>2344.749822082217</v>
+        <v>2038.680093386545</v>
       </c>
       <c r="X29" t="n">
-        <v>1971.284063821137</v>
+        <v>2038.680093386545</v>
       </c>
       <c r="Y29" t="n">
-        <v>1971.284063821137</v>
+        <v>1648.540761410733</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>774.6289167208359</v>
+        <v>881.8450797407235</v>
       </c>
       <c r="C30" t="n">
-        <v>600.175887439709</v>
+        <v>707.3920504595965</v>
       </c>
       <c r="D30" t="n">
-        <v>451.2414777784577</v>
+        <v>558.4576407983452</v>
       </c>
       <c r="E30" t="n">
-        <v>292.0040227730022</v>
+        <v>399.2201857928898</v>
       </c>
       <c r="F30" t="n">
-        <v>292.0040227730022</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="G30" t="n">
-        <v>153.9291369056942</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H30" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I30" t="n">
         <v>46.89499644164432</v>
@@ -6554,10 +6554,10 @@
         <v>1128.843878304552</v>
       </c>
       <c r="N30" t="n">
-        <v>1640.568559592725</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O30" t="n">
-        <v>2042.280991189052</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P30" t="n">
         <v>2344.749822082216</v>
@@ -6566,28 +6566,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R30" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S30" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T30" t="n">
-        <v>1923.529830251457</v>
+        <v>2183.242145037065</v>
       </c>
       <c r="U30" t="n">
-        <v>1695.349365905614</v>
+        <v>1955.061680691222</v>
       </c>
       <c r="V30" t="n">
-        <v>1460.197257673872</v>
+        <v>1719.90957245948</v>
       </c>
       <c r="W30" t="n">
-        <v>1205.95990094567</v>
+        <v>1465.672215731278</v>
       </c>
       <c r="X30" t="n">
-        <v>998.1084007401373</v>
+        <v>1257.820715525745</v>
       </c>
       <c r="Y30" t="n">
-        <v>942.8442537409039</v>
+        <v>1050.060416760791</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C31" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D31" t="n">
-        <v>46.89499644164432</v>
+        <v>457.6519340239745</v>
       </c>
       <c r="E31" t="n">
-        <v>46.89499644164432</v>
+        <v>309.7388404415814</v>
       </c>
       <c r="F31" t="n">
-        <v>46.89499644164432</v>
+        <v>162.848892943671</v>
       </c>
       <c r="G31" t="n">
         <v>46.89499644164432</v>
@@ -6660,13 +6660,13 @@
         <v>607.7685734363102</v>
       </c>
       <c r="W31" t="n">
-        <v>318.3514033993496</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X31" t="n">
-        <v>90.36185250133229</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.857513382056</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="C32" t="n">
-        <v>46.89499644164432</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="D32" t="n">
-        <v>46.89499644164432</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="E32" t="n">
-        <v>46.89499644164432</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="F32" t="n">
-        <v>46.89499644164432</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G32" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H32" t="n">
         <v>46.89499644164432</v>
@@ -6700,16 +6700,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K32" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L32" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M32" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N32" t="n">
         <v>1610.799342072557</v>
@@ -6724,28 +6724,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R32" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S32" t="n">
-        <v>2249.893986296754</v>
+        <v>2165.040945311106</v>
       </c>
       <c r="T32" t="n">
-        <v>2249.893986296754</v>
+        <v>1945.058185942684</v>
       </c>
       <c r="U32" t="n">
-        <v>2249.893986296754</v>
+        <v>1945.058185942684</v>
       </c>
       <c r="V32" t="n">
-        <v>1918.831098953184</v>
+        <v>1945.058185942684</v>
       </c>
       <c r="W32" t="n">
-        <v>1566.062443683069</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="X32" t="n">
-        <v>1192.59668542199</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="Y32" t="n">
-        <v>802.4573534461779</v>
+        <v>1592.28953067257</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>682.5765037404603</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C33" t="n">
-        <v>508.1234744593334</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D33" t="n">
-        <v>506.2543262569397</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E33" t="n">
-        <v>506.2543262569397</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F33" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G33" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H33" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I33" t="n">
         <v>46.89499644164432</v>
@@ -6803,28 +6803,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R33" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S33" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T33" t="n">
-        <v>1983.973569036802</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U33" t="n">
-        <v>1755.793104690959</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V33" t="n">
-        <v>1520.640996459217</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W33" t="n">
-        <v>1266.403639731015</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X33" t="n">
-        <v>1058.552139525482</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y33" t="n">
-        <v>850.7918407605284</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.89499644164432</v>
+        <v>386.9759942927801</v>
       </c>
       <c r="C34" t="n">
-        <v>46.89499644164432</v>
+        <v>386.9759942927801</v>
       </c>
       <c r="D34" t="n">
-        <v>46.89499644164432</v>
+        <v>386.9759942927801</v>
       </c>
       <c r="E34" t="n">
-        <v>46.89499644164432</v>
+        <v>239.062900710387</v>
       </c>
       <c r="F34" t="n">
-        <v>46.89499644164432</v>
+        <v>92.17295321247664</v>
       </c>
       <c r="G34" t="n">
-        <v>46.89499644164432</v>
+        <v>92.17295321247664</v>
       </c>
       <c r="H34" t="n">
-        <v>46.89499644164432</v>
+        <v>92.17295321247664</v>
       </c>
       <c r="I34" t="n">
         <v>46.89499644164432</v>
@@ -6891,19 +6891,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U34" t="n">
-        <v>590.9966546844918</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V34" t="n">
-        <v>336.3121664786049</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W34" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X34" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.89499644164432</v>
+        <v>386.9759942927801</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1215.241994772169</v>
+        <v>1410.453767052119</v>
       </c>
       <c r="C35" t="n">
-        <v>846.279477831757</v>
+        <v>1041.491250111708</v>
       </c>
       <c r="D35" t="n">
-        <v>846.279477831757</v>
+        <v>1041.491250111708</v>
       </c>
       <c r="E35" t="n">
-        <v>846.279477831757</v>
+        <v>1041.491250111708</v>
       </c>
       <c r="F35" t="n">
-        <v>435.2935730421495</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="G35" t="n">
         <v>212.2335778049849</v>
@@ -6961,28 +6961,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R35" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S35" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T35" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U35" t="n">
-        <v>2344.749822082216</v>
+        <v>1741.51665439569</v>
       </c>
       <c r="V35" t="n">
-        <v>2344.749822082216</v>
+        <v>1410.453767052119</v>
       </c>
       <c r="W35" t="n">
-        <v>1991.981166812102</v>
+        <v>1410.453767052119</v>
       </c>
       <c r="X35" t="n">
-        <v>1991.981166812102</v>
+        <v>1410.453767052119</v>
       </c>
       <c r="Y35" t="n">
-        <v>1601.84183483629</v>
+        <v>1410.453767052119</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.8792202047736</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C36" t="n">
-        <v>814.4261909236466</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D36" t="n">
-        <v>665.4917812623953</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E36" t="n">
-        <v>506.2543262569397</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F36" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G36" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H36" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I36" t="n">
         <v>46.89499644164432</v>
@@ -7019,10 +7019,10 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K36" t="n">
-        <v>121.6684232076319</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L36" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M36" t="n">
         <v>974.4476973832902</v>
@@ -7046,22 +7046,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T36" t="n">
-        <v>2122.060948481047</v>
+        <v>1977.451513658935</v>
       </c>
       <c r="U36" t="n">
-        <v>1893.880484135205</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V36" t="n">
-        <v>1658.728375903462</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W36" t="n">
-        <v>1404.49101917526</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X36" t="n">
-        <v>1196.639518969728</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y36" t="n">
-        <v>988.8792202047736</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.89499644164432</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="C37" t="n">
-        <v>46.89499644164432</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="D37" t="n">
-        <v>46.89499644164432</v>
+        <v>202.9674458180877</v>
       </c>
       <c r="E37" t="n">
-        <v>46.89499644164432</v>
+        <v>202.9674458180877</v>
       </c>
       <c r="F37" t="n">
-        <v>46.89499644164432</v>
+        <v>56.07749832017731</v>
       </c>
       <c r="G37" t="n">
         <v>46.89499644164432</v>
@@ -7119,28 +7119,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R37" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S37" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T37" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U37" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V37" t="n">
-        <v>453.4106385108907</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="W37" t="n">
-        <v>163.9934684739301</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="X37" t="n">
-        <v>163.9934684739301</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="Y37" t="n">
-        <v>163.9934684739301</v>
+        <v>353.0840852304234</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>961.551114205444</v>
+        <v>1257.740407238086</v>
       </c>
       <c r="C38" t="n">
-        <v>592.5885972650324</v>
+        <v>1257.740407238086</v>
       </c>
       <c r="D38" t="n">
-        <v>592.5885972650324</v>
+        <v>1257.740407238086</v>
       </c>
       <c r="E38" t="n">
-        <v>206.8003446667881</v>
+        <v>1257.740407238086</v>
       </c>
       <c r="F38" t="n">
-        <v>206.8003446667881</v>
+        <v>846.7545024484782</v>
       </c>
       <c r="G38" t="n">
-        <v>46.89499644164432</v>
+        <v>428.482734931363</v>
       </c>
       <c r="H38" t="n">
-        <v>46.89499644164432</v>
+        <v>98.13412560540434</v>
       </c>
       <c r="I38" t="n">
         <v>46.89499644164432</v>
@@ -7180,10 +7180,10 @@
         <v>392.9020949275675</v>
       </c>
       <c r="L38" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M38" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N38" t="n">
         <v>1610.799342072557</v>
@@ -7207,19 +7207,19 @@
         <v>1941.571949851771</v>
       </c>
       <c r="U38" t="n">
-        <v>1687.785527736638</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="V38" t="n">
-        <v>1687.785527736638</v>
+        <v>1610.5090625082</v>
       </c>
       <c r="W38" t="n">
-        <v>1335.016872466524</v>
+        <v>1257.740407238086</v>
       </c>
       <c r="X38" t="n">
-        <v>961.551114205444</v>
+        <v>1257.740407238086</v>
       </c>
       <c r="Y38" t="n">
-        <v>961.551114205444</v>
+        <v>1257.740407238086</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.8792202047736</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C39" t="n">
-        <v>814.4261909236466</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D39" t="n">
-        <v>665.4917812623953</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E39" t="n">
-        <v>506.2543262569397</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F39" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G39" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H39" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I39" t="n">
         <v>46.89499644164432</v>
@@ -7256,16 +7256,16 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K39" t="n">
-        <v>121.6684232076319</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L39" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M39" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N39" t="n">
-        <v>1486.172378671464</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O39" t="n">
         <v>1887.88481026779</v>
@@ -7277,28 +7277,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R39" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S39" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T39" t="n">
-        <v>2290.276285501115</v>
+        <v>1977.451513658935</v>
       </c>
       <c r="U39" t="n">
-        <v>2062.095821155272</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.94371292353</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.706356195328</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.854855989795</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y39" t="n">
-        <v>1157.094557224842</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C40" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D40" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E40" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F40" t="n">
-        <v>515.4926565726222</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G40" t="n">
-        <v>346.3547163191317</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H40" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I40" t="n">
         <v>46.89499644164432</v>
@@ -7365,19 +7365,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U40" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V40" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="W40" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X40" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y40" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1506.771186754354</v>
+        <v>1427.279502709952</v>
       </c>
       <c r="C41" t="n">
-        <v>1137.808669813942</v>
+        <v>1427.279502709952</v>
       </c>
       <c r="D41" t="n">
-        <v>779.5429712071918</v>
+        <v>1427.279502709952</v>
       </c>
       <c r="E41" t="n">
-        <v>393.7547186089476</v>
+        <v>1041.491250111708</v>
       </c>
       <c r="F41" t="n">
-        <v>46.89499644164432</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="G41" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H41" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I41" t="n">
         <v>46.89499644164432</v>
@@ -7435,28 +7435,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R41" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S41" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T41" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U41" t="n">
-        <v>2270.376276991246</v>
+        <v>2204.018674749886</v>
       </c>
       <c r="V41" t="n">
-        <v>2270.376276991246</v>
+        <v>2204.018674749886</v>
       </c>
       <c r="W41" t="n">
-        <v>2270.376276991246</v>
+        <v>2204.018674749886</v>
       </c>
       <c r="X41" t="n">
-        <v>1896.910518730166</v>
+        <v>2204.018674749886</v>
       </c>
       <c r="Y41" t="n">
-        <v>1506.771186754354</v>
+        <v>1813.879342774074</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C42" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D42" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E42" t="n">
-        <v>506.2543262569397</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="F42" t="n">
-        <v>359.7197682838247</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="G42" t="n">
-        <v>221.6448824165167</v>
+        <v>160.6704401454292</v>
       </c>
       <c r="H42" t="n">
         <v>114.6107419524668</v>
@@ -7490,16 +7490,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J42" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K42" t="n">
-        <v>121.6684232076319</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L42" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M42" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N42" t="n">
         <v>1486.172378671464</v>
@@ -7526,16 +7526,16 @@
         <v>1695.349365905614</v>
       </c>
       <c r="V42" t="n">
-        <v>1695.349365905614</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W42" t="n">
-        <v>1441.112009177413</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y42" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>318.3514033993496</v>
+        <v>215.8311793695513</v>
       </c>
       <c r="C43" t="n">
-        <v>318.3514033993496</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D43" t="n">
-        <v>318.3514033993496</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E43" t="n">
-        <v>318.3514033993496</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F43" t="n">
-        <v>216.0329366951349</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G43" t="n">
         <v>46.89499644164432</v>
@@ -7608,13 +7608,13 @@
         <v>607.7685734363102</v>
       </c>
       <c r="W43" t="n">
-        <v>318.3514033993496</v>
+        <v>397.479644199791</v>
       </c>
       <c r="X43" t="n">
-        <v>318.3514033993496</v>
+        <v>397.479644199791</v>
       </c>
       <c r="Y43" t="n">
-        <v>318.3514033993496</v>
+        <v>397.479644199791</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1867.1984047608</v>
+        <v>1011.349778919179</v>
       </c>
       <c r="C44" t="n">
-        <v>1498.235887820388</v>
+        <v>1011.349778919179</v>
       </c>
       <c r="D44" t="n">
-        <v>1139.970189213638</v>
+        <v>1011.349778919179</v>
       </c>
       <c r="E44" t="n">
-        <v>1139.970189213638</v>
+        <v>625.5615263209347</v>
       </c>
       <c r="F44" t="n">
-        <v>795.5153732847182</v>
+        <v>214.5756215313272</v>
       </c>
       <c r="G44" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H44" t="n">
         <v>46.89499644164432</v>
@@ -7672,28 +7672,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R44" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S44" t="n">
-        <v>2087.181164129222</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T44" t="n">
-        <v>1867.1984047608</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="U44" t="n">
-        <v>1867.1984047608</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="V44" t="n">
-        <v>1867.1984047608</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="W44" t="n">
-        <v>1867.1984047608</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="X44" t="n">
-        <v>1867.1984047608</v>
+        <v>1788.088950959112</v>
       </c>
       <c r="Y44" t="n">
-        <v>1867.1984047608</v>
+        <v>1397.949618983301</v>
       </c>
     </row>
     <row r="45">
@@ -7703,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>790.3481019751835</v>
+        <v>850.8043343374655</v>
       </c>
       <c r="C45" t="n">
-        <v>615.8950726940565</v>
+        <v>676.3513050563386</v>
       </c>
       <c r="D45" t="n">
-        <v>615.8950726940565</v>
+        <v>527.4168953950873</v>
       </c>
       <c r="E45" t="n">
-        <v>456.657617688601</v>
+        <v>368.1794403896317</v>
       </c>
       <c r="F45" t="n">
-        <v>310.123059715486</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="G45" t="n">
-        <v>172.048173848178</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H45" t="n">
-        <v>65.01403338412808</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I45" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J45" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K45" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L45" t="n">
-        <v>645.6158192373777</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M45" t="n">
-        <v>1128.843878304552</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N45" t="n">
-        <v>1640.568559592726</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O45" t="n">
-        <v>2042.280991189052</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P45" t="n">
         <v>2193.291384540003</v>
@@ -7754,25 +7754,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S45" t="n">
-        <v>2123.072528197426</v>
+        <v>2123.563633233934</v>
       </c>
       <c r="T45" t="n">
-        <v>1923.529830251457</v>
+        <v>1924.020935287964</v>
       </c>
       <c r="U45" t="n">
-        <v>1695.349365905614</v>
+        <v>1924.020935287964</v>
       </c>
       <c r="V45" t="n">
-        <v>1460.197257673872</v>
+        <v>1688.868827056222</v>
       </c>
       <c r="W45" t="n">
-        <v>1205.95990094567</v>
+        <v>1434.63147032802</v>
       </c>
       <c r="X45" t="n">
-        <v>998.1084007401373</v>
+        <v>1226.779970122487</v>
       </c>
       <c r="Y45" t="n">
-        <v>790.3481019751835</v>
+        <v>1019.019671357534</v>
       </c>
     </row>
     <row r="46">
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>90.36185250133229</v>
+        <v>197.0116358539801</v>
       </c>
       <c r="C46" t="n">
-        <v>46.89499644164432</v>
+        <v>197.0116358539801</v>
       </c>
       <c r="D46" t="n">
         <v>46.89499644164432</v>
@@ -7842,16 +7842,16 @@
         <v>607.7685734363102</v>
       </c>
       <c r="V46" t="n">
-        <v>607.7685734363102</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="W46" t="n">
-        <v>318.3514033993496</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="X46" t="n">
-        <v>90.36185250133229</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.36185250133229</v>
+        <v>197.0116358539801</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8063,10 +8063,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>299.7328472056018</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>299.7328472056018</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8780,16 +8780,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>415.7693643006697</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>315.495351085342</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.08896698613911</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>108.5094987082737</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9020,7 +9020,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>177.3009884841359</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9260,10 +9260,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>162.5070303356325</v>
+        <v>315.4953510853424</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>47.90390621998488</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509598</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>108.5094987082738</v>
       </c>
       <c r="L24" t="n">
-        <v>154.2790145108656</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9971,10 +9971,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>101.9014378473433</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10202,13 +10202,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>476.3749567889587</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>315.4953510853424</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>57.08896698613911</v>
@@ -10667,13 +10667,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>47.90390621998491</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>249.1437329574062</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>47.90390621998491</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10916,7 +10916,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>177.3009884841359</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>108.5094987082737</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509598</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,13 +11387,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509598</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>162.5070303356321</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>114.2865076092443</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
-        <v>327.0451232326991</v>
+        <v>318.0840347710042</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S11" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23342,7 +23342,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23393,7 +23393,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>130.5311903113545</v>
+        <v>42.92542614420725</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4465608509556</v>
+        <v>150.6086967516005</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J13" t="n">
         <v>54.86879163620181</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R13" t="n">
         <v>152.8143555761653</v>
@@ -23469,13 +23469,13 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T13" t="n">
-        <v>112.2407671004199</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23500,7 +23500,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>327.0451232326991</v>
+        <v>242.4640383435591</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S14" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T14" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>228.565359305121</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23585,16 +23585,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,16 +23624,16 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>14.27705323942814</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>130.2784035477362</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23658,25 +23658,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>143.8034273177651</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>109.9495965877198</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R16" t="n">
         <v>152.8143555761653</v>
@@ -23706,7 +23706,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T16" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2893338015361</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>264.8442918435686</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>191.2144822035075</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23940,22 +23940,22 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U19" t="n">
         <v>286.2893338015361</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>132.0112734539121</v>
       </c>
       <c r="X19" t="n">
-        <v>110.5931200167539</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>41.9589504972995</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>143.5774396875595</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24059,7 +24059,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>136.7065056498026</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -24068,7 +24068,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24104,13 +24104,13 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>44.3454194805276</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.4465608509556</v>
@@ -24147,7 +24147,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0783256288915</v>
+        <v>24.28396809188513</v>
       </c>
       <c r="J22" t="n">
         <v>54.86879163620181</v>
@@ -24186,10 +24186,10 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V22" t="n">
-        <v>150.6426215343276</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24211,19 +24211,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>87.56057130938197</v>
+        <v>269.696085953526</v>
       </c>
       <c r="I23" t="n">
         <v>163.6851955497072</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,13 +24265,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24299,13 +24299,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24341,13 +24341,13 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>53.38246657340306</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>70.43910215024479</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>163.2277806176366</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>157.3867970498209</v>
+        <v>54.06789032788015</v>
       </c>
       <c r="I25" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>54.86879163620181</v>
@@ -24423,10 +24423,10 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>23.82371469509638</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24508,10 +24508,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>66.72206926975423</v>
       </c>
     </row>
     <row r="27">
@@ -24533,16 +24533,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>58.38855875532697</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24581,7 +24581,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>159.3462656328124</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24606,16 +24606,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>157.3867970498209</v>
@@ -24654,13 +24654,13 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V28" t="n">
-        <v>208.7815735241403</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>124.8028940194748</v>
       </c>
     </row>
     <row r="29">
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>154.5569710948521</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>181.3631617334038</v>
+        <v>169.7668717394876</v>
       </c>
       <c r="T29" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2485578939812</v>
@@ -24745,10 +24745,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24770,16 +24770,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>37.65467069181011</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>150.9711902480633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24843,16 +24843,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4465608509556</v>
+        <v>52.6522033139492</v>
       </c>
       <c r="H31" t="n">
         <v>157.3867970498209</v>
@@ -24900,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>175.5524658530037</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>163.6851955497072</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S32" t="n">
-        <v>161.0856939458573</v>
+        <v>3.451373730004292</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25001,22 +25001,22 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>145.5946088442691</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25052,7 +25052,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>53.38246657340306</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25083,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.4465608509556</v>
@@ -25095,7 +25095,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I34" t="n">
-        <v>139.0783256288916</v>
+        <v>94.25314842576759</v>
       </c>
       <c r="J34" t="n">
         <v>54.86879163620181</v>
@@ -25131,19 +25131,19 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>269.6851342372358</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>193.259654557151</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>327.0451232326991</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2485578939812</v>
+        <v>126.8236250325223</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25247,13 +25247,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25286,7 +25286,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>196.5458070472945</v>
+        <v>53.38246657340289</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>63.90449286997435</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4465608509556</v>
+        <v>158.355883991208</v>
       </c>
       <c r="H37" t="n">
         <v>157.3867970498209</v>
@@ -25359,7 +25359,7 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S37" t="n">
         <v>214.5288682289405</v>
@@ -25371,10 +25371,10 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,25 +25393,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>255.7827550990516</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>163.6851955497072</v>
+        <v>112.9584576775848</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,16 +25447,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25484,13 +25484,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>143.6184697512195</v>
+        <v>53.38246657340289</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>54.06789032788008</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J40" t="n">
         <v>54.86879163620181</v>
@@ -25605,13 +25605,13 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>63.48492079608121</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S41" t="n">
         <v>181.3631617334038</v>
@@ -25684,7 +25684,7 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2485578939812</v>
+        <v>111.9247220349738</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25693,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25715,16 +25715,16 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>60.36469784837669</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25766,13 +25766,13 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>130.2784035477362</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,10 +25797,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>44.12576598575865</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H43" t="n">
         <v>157.3867970498209</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>78.33695839243694</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>65.86577797208116</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>248.085231003158</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
         <v>163.6851955497072</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
         <v>251.2485578939812</v>
@@ -25930,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25943,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25958,13 +25958,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>49.10074148265532</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,13 +25994,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>0.4861939861418989</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>124.2146335995367</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26082,16 +26082,16 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>64.0729284694159</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>576990.8304925053</v>
+        <v>576990.8304925051</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>576990.8304925052</v>
+        <v>576990.8304925051</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>576990.830492505</v>
+        <v>576990.8304925051</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>576990.830492505</v>
+        <v>576990.8304925053</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>576990.8304925051</v>
+        <v>576990.8304925052</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>576990.8304925055</v>
+        <v>576990.8304925051</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>576990.8304925051</v>
+        <v>576990.8304925052</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>576990.830492505</v>
+        <v>576990.8304925055</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>576990.8304925052</v>
+        <v>576990.830492505</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>576990.8304925051</v>
+        <v>576990.8304925052</v>
       </c>
     </row>
   </sheetData>
@@ -26319,22 +26319,22 @@
         <v>595255.2831516053</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="E2" t="n">
         <v>383345.3446581122</v>
       </c>
       <c r="F2" t="n">
-        <v>383345.3446581122</v>
+        <v>383345.3446581121</v>
       </c>
       <c r="G2" t="n">
         <v>383345.3446581123</v>
       </c>
       <c r="H2" t="n">
-        <v>383345.3446581121</v>
+        <v>383345.3446581122</v>
       </c>
       <c r="I2" t="n">
-        <v>383345.3446581122</v>
+        <v>383345.3446581123</v>
       </c>
       <c r="J2" t="n">
         <v>383345.3446581122</v>
@@ -26343,10 +26343,10 @@
         <v>383345.3446581122</v>
       </c>
       <c r="L2" t="n">
-        <v>383345.3446581121</v>
+        <v>383345.3446581124</v>
       </c>
       <c r="M2" t="n">
-        <v>383345.3446581122</v>
+        <v>383345.3446581123</v>
       </c>
       <c r="N2" t="n">
         <v>383345.3446581123</v>
@@ -26355,7 +26355,7 @@
         <v>383345.3446581122</v>
       </c>
       <c r="P2" t="n">
-        <v>383345.3446581122</v>
+        <v>383345.3446581123</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910622</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.533820076</v>
+        <v>86018.53382007603</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26527,43 +26527,43 @@
         <v>234378.6399691265</v>
       </c>
       <c r="D6" t="n">
-        <v>234378.6399691265</v>
+        <v>234378.6399691264</v>
       </c>
       <c r="E6" t="n">
-        <v>-39953.69660787191</v>
+        <v>-47260.93586626834</v>
       </c>
       <c r="F6" t="n">
-        <v>305658.6461710808</v>
+        <v>298351.4069126843</v>
       </c>
       <c r="G6" t="n">
-        <v>305658.6461710809</v>
+        <v>298351.4069126845</v>
       </c>
       <c r="H6" t="n">
-        <v>305658.6461710806</v>
+        <v>298351.4069126844</v>
       </c>
       <c r="I6" t="n">
-        <v>305658.6461710808</v>
+        <v>298351.4069126846</v>
       </c>
       <c r="J6" t="n">
-        <v>242598.7035719745</v>
+        <v>235291.4643135782</v>
       </c>
       <c r="K6" t="n">
-        <v>305658.6461710807</v>
+        <v>298351.4069126844</v>
       </c>
       <c r="L6" t="n">
-        <v>305658.6461710806</v>
+        <v>298351.4069126847</v>
       </c>
       <c r="M6" t="n">
-        <v>219640.1123510048</v>
+        <v>212332.8730926085</v>
       </c>
       <c r="N6" t="n">
-        <v>305658.6461710809</v>
+        <v>298351.4069126845</v>
       </c>
       <c r="O6" t="n">
-        <v>305658.6461710808</v>
+        <v>298351.4069126844</v>
       </c>
       <c r="P6" t="n">
-        <v>305658.6461710807</v>
+        <v>298351.4069126845</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="F3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="G3" t="n">
         <v>301.9048087062786</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.173166642895</v>
+        <v>345.1731666428951</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>129.2287717821511</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>351.1641048164582</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27423,13 +27423,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>25.57816959705298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27466,7 +27466,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>87.11603458920352</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,10 +27475,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27587,7 +27587,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>177.1527827970778</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>319.1698855250446</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27718,7 +27718,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27745,10 +27745,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>62.27997900043313</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27760,10 +27760,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>49.74981582707102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27788,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>57.07350359897362</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>47.2544399028796</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>184.0288285387892</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27864,10 +27864,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>303.8671480099096</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27912,10 +27912,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27931,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27943,7 +27943,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27952,10 +27952,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27985,22 +27985,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>244.1622738401522</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>111.2720295162244</v>
       </c>
     </row>
     <row r="10">
@@ -28031,13 +28031,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28061,7 +28061,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -31758,7 +31758,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I11" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J11" t="n">
         <v>103.0102241525006</v>
@@ -31779,22 +31779,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P11" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q11" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R11" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S11" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T11" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H12" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I12" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J12" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K12" t="n">
         <v>104.8606541711232</v>
@@ -31849,25 +31849,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M12" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N12" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O12" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P12" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q12" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R12" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S12" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T12" t="n">
         <v>2.617457728311981</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H13" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I13" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J13" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K13" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L13" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M13" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N13" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O13" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P13" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R13" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S13" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T13" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I14" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J14" t="n">
         <v>103.0102241525006</v>
@@ -32016,22 +32016,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P14" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q14" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R14" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S14" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T14" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H15" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I15" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J15" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K15" t="n">
         <v>104.8606541711232</v>
@@ -32086,25 +32086,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M15" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N15" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O15" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P15" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R15" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S15" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T15" t="n">
         <v>2.617457728311981</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H16" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I16" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J16" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K16" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L16" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M16" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N16" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O16" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P16" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R16" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S16" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T16" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34713,7 +34713,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34783,10 +34783,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>161.1784674257276</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K11" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L11" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M11" t="n">
         <v>432.2802359107712</v>
@@ -35424,13 +35424,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O11" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P11" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q11" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>231.4844522093428</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L12" t="n">
         <v>373.2840556651353</v>
@@ -35500,13 +35500,13 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N12" t="n">
-        <v>453.3206074199177</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O12" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P12" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092566</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35570,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L13" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M13" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N13" t="n">
         <v>127.4430518046842</v>
@@ -35585,7 +35585,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P13" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K14" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L14" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M14" t="n">
         <v>432.2802359107712</v>
@@ -35661,13 +35661,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O14" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P14" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q14" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>231.4844522093428</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L15" t="n">
         <v>373.2840556651353</v>
@@ -35740,7 +35740,7 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O15" t="n">
-        <v>189.2088021329886</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P15" t="n">
         <v>308.4914891638518</v>
@@ -35807,13 +35807,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L16" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M16" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N16" t="n">
         <v>127.4430518046842</v>
@@ -35822,7 +35822,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P16" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35980,10 +35980,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P18" t="n">
-        <v>152.5357508595472</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q18" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>60.60559248828884</v>
       </c>
       <c r="K21" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L21" t="n">
         <v>373.2840556651353</v>
@@ -36211,7 +36211,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N21" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O21" t="n">
         <v>405.7701329255823</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>231.4844522093428</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L24" t="n">
-        <v>156.7227248725416</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M24" t="n">
         <v>488.1091505729034</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651353</v>
@@ -36691,10 +36691,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P27" t="n">
-        <v>91.93015837125802</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q27" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36922,13 +36922,13 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N30" t="n">
-        <v>516.8936174628016</v>
+        <v>513.9261999082067</v>
       </c>
       <c r="O30" t="n">
         <v>405.7701329255822</v>
       </c>
       <c r="P30" t="n">
-        <v>305.5240716092571</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K36" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L36" t="n">
         <v>373.2840556651353</v>
       </c>
       <c r="M36" t="n">
-        <v>488.1091505729034</v>
+        <v>271.5478197803097</v>
       </c>
       <c r="N36" t="n">
         <v>516.8936174628016</v>
@@ -37624,7 +37624,7 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K39" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L39" t="n">
         <v>373.2840556651353</v>
@@ -37636,7 +37636,7 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O39" t="n">
-        <v>405.7701329255822</v>
+        <v>189.2088021329886</v>
       </c>
       <c r="P39" t="n">
         <v>308.4914891638518</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K42" t="n">
-        <v>75.52871390503797</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L42" t="n">
         <v>373.2840556651353</v>
@@ -37870,7 +37870,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N42" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O42" t="n">
         <v>405.7701329255823</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K45" t="n">
         <v>231.4844522093429</v>
@@ -38107,13 +38107,13 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N45" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O45" t="n">
         <v>405.7701329255823</v>
       </c>
       <c r="P45" t="n">
-        <v>152.5357508595468</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q45" t="n">
         <v>152.98832074971</v>
